--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -1579,25 +1579,25 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>8.880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="E36">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F36">
-        <v>78.11</v>
+        <v>83.67</v>
       </c>
       <c r="G36">
         <v>22</v>
       </c>
       <c r="H36">
-        <v>13.02</v>
+        <v>14.97</v>
       </c>
       <c r="I36">
         <v>7.2</v>
@@ -1637,19 +1637,19 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>43.42</v>
+        <v>46.94</v>
       </c>
       <c r="E38">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F38">
-        <v>56.58</v>
+        <v>53.06</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2972,10 +2972,10 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C36">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D36">
         <v>100</v>
@@ -2987,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H36">
-        <v>91.12</v>
+        <v>98.64</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3024,10 +3024,10 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C38">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D38">
         <v>100</v>
@@ -3039,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H38">
-        <v>56.58</v>
+        <v>53.06</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4419,25 +4419,25 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>8.880000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="E36">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F36">
-        <v>78.11</v>
+        <v>83.67</v>
       </c>
       <c r="G36">
         <v>22</v>
       </c>
       <c r="H36">
-        <v>13.02</v>
+        <v>14.97</v>
       </c>
       <c r="I36">
         <v>7.2</v>
@@ -4477,19 +4477,19 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>43.42</v>
+        <v>46.94</v>
       </c>
       <c r="E38">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F38">
-        <v>56.58</v>
+        <v>53.06</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="39" spans="1:9">

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -625,16 +625,16 @@
         <v>145</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>12.41</v>
+        <v>10.34</v>
       </c>
       <c r="E3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F3">
-        <v>87.59</v>
+        <v>89.66</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -712,25 +712,25 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>41.53</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F6">
-        <v>58.47</v>
+        <v>73.73</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>26.27</v>
       </c>
       <c r="I6">
-        <v>8.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -770,25 +770,25 @@
         <v>226</v>
       </c>
       <c r="C8">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>31.86</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F8">
-        <v>64.59999999999999</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>3.54</v>
+        <v>28.32</v>
       </c>
       <c r="I8">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -857,16 +857,16 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>35.9</v>
+        <v>28.21</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>64.09999999999999</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -944,25 +944,25 @@
         <v>175</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>30.86</v>
+        <v>7.43</v>
       </c>
       <c r="E14">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F14">
-        <v>68</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>1.14</v>
+        <v>17.14</v>
       </c>
       <c r="I14">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1147,25 +1147,25 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>19.72</v>
+        <v>16.9</v>
       </c>
       <c r="E21">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F21">
-        <v>79.81</v>
+        <v>81.22</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>0.47</v>
+        <v>1.88</v>
       </c>
       <c r="I21">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1408,25 +1408,25 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D30">
-        <v>34.29</v>
+        <v>27.14</v>
       </c>
       <c r="E30">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F30">
-        <v>65.70999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="I30">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1495,22 +1495,22 @@
         <v>177</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>16.38</v>
+        <v>10.73</v>
       </c>
       <c r="E33">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F33">
-        <v>75.14</v>
+        <v>76.84</v>
       </c>
       <c r="G33">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H33">
-        <v>8.470000000000001</v>
+        <v>12.43</v>
       </c>
       <c r="I33">
         <v>6.6</v>
@@ -1553,16 +1553,16 @@
         <v>149</v>
       </c>
       <c r="C35">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D35">
-        <v>80.54000000000001</v>
+        <v>53.69</v>
       </c>
       <c r="E35">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F35">
-        <v>19.46</v>
+        <v>46.31</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1611,25 +1611,25 @@
         <v>91</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>16.48</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F37">
-        <v>83.52</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>10.99</v>
       </c>
       <c r="I37">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1640,25 +1640,25 @@
         <v>98</v>
       </c>
       <c r="C38">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>46.94</v>
+        <v>21.43</v>
       </c>
       <c r="E38">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F38">
-        <v>53.06</v>
+        <v>75.51000000000001</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="I38">
-        <v>7.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1959,16 +1959,16 @@
         <v>123</v>
       </c>
       <c r="C49">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49">
-        <v>46.34</v>
+        <v>45.53</v>
       </c>
       <c r="E49">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49">
-        <v>53.66</v>
+        <v>54.47</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2017,10 +2017,10 @@
         <v>215</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>182</v>
@@ -2029,13 +2029,13 @@
         <v>84.65000000000001</v>
       </c>
       <c r="G51">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>6.05</v>
+        <v>14.42</v>
       </c>
       <c r="I51">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2117,22 +2117,25 @@
         <v>145</v>
       </c>
       <c r="C3">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>26.21</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="G3">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>87.59</v>
+        <v>15.86</v>
+      </c>
+      <c r="I3">
+        <v>9.6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2195,22 +2198,25 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>1.69</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>77.97</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>58.47</v>
+        <v>22.03</v>
+      </c>
+      <c r="I6">
+        <v>7.8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2221,22 +2227,25 @@
         <v>118</v>
       </c>
       <c r="C7">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>81.36</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>18.64</v>
       </c>
       <c r="G7">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H7">
-        <v>67.8</v>
+        <v>49.15</v>
+      </c>
+      <c r="I7">
+        <v>8.5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2247,22 +2256,25 @@
         <v>226</v>
       </c>
       <c r="C8">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>9.73</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G8">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="H8">
-        <v>68.14</v>
+        <v>35.4</v>
+      </c>
+      <c r="I8">
+        <v>7.8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2337,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>64.09999999999999</v>
+        <v>71.79000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2403,22 +2415,25 @@
         <v>175</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>18.29</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="G14">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="H14">
-        <v>69.14</v>
+        <v>22.29</v>
+      </c>
+      <c r="I14">
+        <v>6.8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2473,7 +2488,7 @@
         <v>90.15000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2499,7 +2514,7 @@
         <v>64.91</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2525,7 +2540,7 @@
         <v>80.16</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2551,7 +2566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2577,7 +2592,7 @@
         <v>77.29000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2585,25 +2600,28 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>46.01</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>53.52</v>
       </c>
       <c r="G21">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="H21">
-        <v>80.28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>29.58</v>
+      </c>
+      <c r="I21">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2629,7 +2647,7 @@
         <v>88.23999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2655,7 +2673,7 @@
         <v>58.41</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2681,7 +2699,7 @@
         <v>67.95</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2707,7 +2725,7 @@
         <v>68.33</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>85.56</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2759,7 +2777,7 @@
         <v>65.52</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2767,25 +2785,28 @@
         <v>88</v>
       </c>
       <c r="C28">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>94.31999999999999</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>56.82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>51.14</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2793,25 +2814,28 @@
         <v>103</v>
       </c>
       <c r="C29">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>76.7</v>
       </c>
       <c r="G29">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="H29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23.3</v>
+      </c>
+      <c r="I29">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2819,25 +2843,28 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>32.86</v>
       </c>
       <c r="G30">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="H30">
-        <v>65.70999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2863,7 +2890,7 @@
         <v>65.28</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2871,25 +2898,28 @@
         <v>127</v>
       </c>
       <c r="C32">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>74.02</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>23.62</v>
       </c>
       <c r="G32">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="H32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>76.38</v>
+      </c>
+      <c r="I32">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2897,25 +2927,28 @@
         <v>177</v>
       </c>
       <c r="C33">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>29.94</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>67.8</v>
       </c>
       <c r="G33">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>83.62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21.47</v>
+      </c>
+      <c r="I33">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2923,25 +2956,28 @@
         <v>126</v>
       </c>
       <c r="C34">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G34">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="H34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14.29</v>
+      </c>
+      <c r="I34">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2949,25 +2985,28 @@
         <v>149</v>
       </c>
       <c r="C35">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>71.81</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>28.19</v>
       </c>
       <c r="G35">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H35">
-        <v>19.46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18.12</v>
+      </c>
+      <c r="I35">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2993,7 +3032,7 @@
         <v>98.64</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -3001,25 +3040,28 @@
         <v>91</v>
       </c>
       <c r="C37">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>23.08</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="G37">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="H37">
-        <v>83.52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>24.18</v>
+      </c>
+      <c r="I37">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -3027,25 +3069,28 @@
         <v>98</v>
       </c>
       <c r="C38">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>34.69</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>63.27</v>
       </c>
       <c r="G38">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H38">
-        <v>53.06</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>15.31</v>
+      </c>
+      <c r="I38">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -3071,7 +3116,7 @@
         <v>45.26</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3097,7 +3142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -3123,7 +3168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3149,7 +3194,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -3175,7 +3220,7 @@
         <v>28.72</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -3201,7 +3246,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -3209,25 +3254,28 @@
         <v>115</v>
       </c>
       <c r="C45">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>24.35</v>
       </c>
       <c r="G45">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>75.65000000000001</v>
+      </c>
+      <c r="I45">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3253,7 +3301,7 @@
         <v>56.76</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -3279,7 +3327,7 @@
         <v>62.44</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -3305,7 +3353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -3313,25 +3361,28 @@
         <v>123</v>
       </c>
       <c r="C49">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>13.82</v>
       </c>
       <c r="G49">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H49">
-        <v>53.66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>40.65</v>
+      </c>
+      <c r="I49">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -3357,7 +3408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -3365,22 +3416,25 @@
         <v>215</v>
       </c>
       <c r="C51">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>2.79</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>84.19</v>
       </c>
       <c r="G51">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>90.7</v>
+        <v>14.88</v>
+      </c>
+      <c r="I51">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -3465,16 +3519,16 @@
         <v>145</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>12.41</v>
+        <v>10.34</v>
       </c>
       <c r="E3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F3">
-        <v>87.59</v>
+        <v>89.66</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3552,25 +3606,25 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>41.53</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F6">
-        <v>58.47</v>
+        <v>79.66</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>20.34</v>
       </c>
       <c r="I6">
-        <v>8.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3610,25 +3664,25 @@
         <v>226</v>
       </c>
       <c r="C8">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>31.86</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F8">
-        <v>64.59999999999999</v>
+        <v>66.81</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>3.54</v>
+        <v>33.19</v>
       </c>
       <c r="I8">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3697,16 +3751,16 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>35.9</v>
+        <v>28.21</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>64.09999999999999</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3715,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3784,25 +3838,25 @@
         <v>175</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>30.86</v>
+        <v>7.43</v>
       </c>
       <c r="E14">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F14">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>1.14</v>
+        <v>20.57</v>
       </c>
       <c r="I14">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3987,25 +4041,25 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>19.72</v>
+        <v>16.9</v>
       </c>
       <c r="E21">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F21">
-        <v>79.81</v>
+        <v>82.16</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0.47</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I21">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4225,16 +4279,16 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F29">
-        <v>97.09</v>
+        <v>76.7</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H29">
-        <v>2.91</v>
+        <v>23.3</v>
       </c>
       <c r="I29">
         <v>8</v>
@@ -4248,25 +4302,25 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D30">
-        <v>34.29</v>
+        <v>27.14</v>
       </c>
       <c r="E30">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F30">
-        <v>65.70999999999999</v>
+        <v>67.62</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5.24</v>
       </c>
       <c r="I30">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4312,16 +4366,16 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F32">
-        <v>62.99</v>
+        <v>63.78</v>
       </c>
       <c r="G32">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32">
-        <v>37.01</v>
+        <v>36.22</v>
       </c>
       <c r="I32">
         <v>6.9</v>
@@ -4335,22 +4389,22 @@
         <v>177</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>16.38</v>
+        <v>10.73</v>
       </c>
       <c r="E33">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>75.14</v>
+        <v>77.97</v>
       </c>
       <c r="G33">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H33">
-        <v>8.470000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="I33">
         <v>6.6</v>
@@ -4370,16 +4424,16 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F34">
-        <v>81.75</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H34">
-        <v>18.25</v>
+        <v>14.29</v>
       </c>
       <c r="I34">
         <v>7.8</v>
@@ -4393,16 +4447,16 @@
         <v>149</v>
       </c>
       <c r="C35">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D35">
-        <v>80.54000000000001</v>
+        <v>53.69</v>
       </c>
       <c r="E35">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F35">
-        <v>19.46</v>
+        <v>46.31</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4411,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4451,25 +4505,25 @@
         <v>91</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>16.48</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F37">
-        <v>83.52</v>
+        <v>91.20999999999999</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I37">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4480,25 +4534,25 @@
         <v>98</v>
       </c>
       <c r="C38">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>46.94</v>
+        <v>21.43</v>
       </c>
       <c r="E38">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F38">
-        <v>53.06</v>
+        <v>75.51000000000001</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="I38">
-        <v>7.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4799,16 +4853,16 @@
         <v>123</v>
       </c>
       <c r="C49">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49">
-        <v>46.34</v>
+        <v>45.53</v>
       </c>
       <c r="E49">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49">
-        <v>53.66</v>
+        <v>54.47</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4817,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4857,25 +4911,25 @@
         <v>215</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F51">
-        <v>84.65000000000001</v>
+        <v>85.12</v>
       </c>
       <c r="G51">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>6.05</v>
+        <v>14.88</v>
       </c>
       <c r="I51">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -596,16 +596,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>26.47</v>
+        <v>23.53</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>73.53</v>
+        <v>76.47</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -625,16 +625,16 @@
         <v>145</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>10.34</v>
+        <v>9.66</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F3">
-        <v>89.66</v>
+        <v>90.34</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>118</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>32.2</v>
+        <v>30.51</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7">
-        <v>67.8</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -799,25 +799,25 @@
         <v>97</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>20.62</v>
+        <v>1.03</v>
       </c>
       <c r="E9">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F9">
-        <v>79.38</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>15.46</v>
       </c>
       <c r="I9">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -828,25 +828,25 @@
         <v>151</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>26.49</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F10">
-        <v>60.93</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>12.58</v>
+        <v>27.15</v>
       </c>
       <c r="I10">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -857,16 +857,16 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>28.21</v>
+        <v>25.64</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>71.79000000000001</v>
+        <v>74.36</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -886,16 +886,16 @@
         <v>71</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>18.31</v>
+        <v>12.68</v>
       </c>
       <c r="E12">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F12">
-        <v>81.69</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -915,25 +915,25 @@
         <v>122</v>
       </c>
       <c r="C13">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>55.74</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F13">
-        <v>44.26</v>
+        <v>49.18</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>50.82</v>
       </c>
       <c r="I13">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -944,10 +944,10 @@
         <v>175</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>7.43</v>
+        <v>2.29</v>
       </c>
       <c r="E14">
         <v>132</v>
@@ -956,13 +956,13 @@
         <v>75.43000000000001</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H14">
-        <v>17.14</v>
+        <v>22.29</v>
       </c>
       <c r="I14">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1002,16 +1002,16 @@
         <v>132</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>9.85</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <v>90.15000000000001</v>
+        <v>100</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1031,25 +1031,25 @@
         <v>57</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>35.09</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>64.91</v>
+        <v>68.42</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>31.58</v>
       </c>
       <c r="I17">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1118,25 +1118,25 @@
         <v>251</v>
       </c>
       <c r="C20">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>22.71</v>
+        <v>7.57</v>
       </c>
       <c r="E20">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F20">
-        <v>77.29000000000001</v>
+        <v>83.67</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="I20">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1147,16 +1147,16 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>16.9</v>
+        <v>15.49</v>
       </c>
       <c r="E21">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F21">
-        <v>81.22</v>
+        <v>82.63</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -1234,25 +1234,25 @@
         <v>78</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>32.05</v>
+        <v>10.26</v>
       </c>
       <c r="E24">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F24">
-        <v>67.95</v>
+        <v>75.64</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="I24">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1292,25 +1292,25 @@
         <v>90</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>14.44</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F26">
-        <v>85.56</v>
+        <v>87.78</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="I26">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1321,16 +1321,16 @@
         <v>116</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>34.48</v>
+        <v>32.76</v>
       </c>
       <c r="E27">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F27">
-        <v>65.52</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1350,10 +1350,10 @@
         <v>88</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>43.18</v>
+        <v>40.91</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -1362,13 +1362,13 @@
         <v>56.82</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="I28">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1437,16 +1437,16 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D31">
-        <v>34.72</v>
+        <v>29.17</v>
       </c>
       <c r="E31">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F31">
-        <v>65.28</v>
+        <v>70.83</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1582,10 +1582,10 @@
         <v>147</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>123</v>
@@ -1594,13 +1594,13 @@
         <v>83.67</v>
       </c>
       <c r="G36">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H36">
-        <v>14.97</v>
+        <v>16.33</v>
       </c>
       <c r="I36">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1669,25 +1669,25 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>54.74</v>
+        <v>17.52</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F39">
-        <v>45.26</v>
+        <v>54.01</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>28.47</v>
       </c>
       <c r="I39">
-        <v>7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1756,10 +1756,10 @@
         <v>23</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>8.699999999999999</v>
+        <v>4.35</v>
       </c>
       <c r="E42">
         <v>19</v>
@@ -1768,13 +1768,13 @@
         <v>82.61</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>8.699999999999999</v>
+        <v>13.04</v>
       </c>
       <c r="I42">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1814,25 +1814,25 @@
         <v>96</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="F44">
-        <v>68.75</v>
+        <v>86.45999999999999</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>13.54</v>
       </c>
       <c r="I44">
-        <v>8.699999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1872,16 +1872,16 @@
         <v>111</v>
       </c>
       <c r="C46">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D46">
-        <v>43.24</v>
+        <v>36.94</v>
       </c>
       <c r="E46">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F46">
-        <v>56.76</v>
+        <v>63.06</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1901,25 +1901,25 @@
         <v>197</v>
       </c>
       <c r="C47">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D47">
-        <v>37.56</v>
+        <v>30.96</v>
       </c>
       <c r="E47">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F47">
-        <v>62.44</v>
+        <v>64.97</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>4.06</v>
       </c>
       <c r="I47">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1930,16 +1930,16 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D48">
-        <v>50</v>
+        <v>22.16</v>
       </c>
       <c r="E48">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>77.84</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1959,25 +1959,25 @@
         <v>123</v>
       </c>
       <c r="C49">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>45.53</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F49">
-        <v>54.47</v>
+        <v>59.35</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>40.65</v>
       </c>
       <c r="I49">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2091,22 +2091,25 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>23.53</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>76.47</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>73.53</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2117,22 +2120,22 @@
         <v>145</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>26.21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F3">
-        <v>73.79000000000001</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>15.86</v>
+        <v>10.34</v>
       </c>
       <c r="I3">
         <v>9.6</v>
@@ -2227,25 +2230,25 @@
         <v>118</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>81.36</v>
+        <v>53.39</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F7">
-        <v>18.64</v>
+        <v>46.61</v>
       </c>
       <c r="G7">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>49.15</v>
+        <v>22.88</v>
       </c>
       <c r="I7">
-        <v>8.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2285,22 +2288,25 @@
         <v>97</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>74.23</v>
       </c>
       <c r="G9">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>79.38</v>
+        <v>24.74</v>
+      </c>
+      <c r="I9">
+        <v>7.6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2311,22 +2317,25 @@
         <v>151</v>
       </c>
       <c r="C10">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>60.93</v>
       </c>
       <c r="G10">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H10">
-        <v>73.51000000000001</v>
+        <v>39.07</v>
+      </c>
+      <c r="I10">
+        <v>6.7</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2337,22 +2346,25 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>43.59</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>56.41</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>71.79000000000001</v>
+        <v>17.95</v>
+      </c>
+      <c r="I11">
+        <v>6.9</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2363,22 +2375,25 @@
         <v>71</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>14.08</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>85.92</v>
       </c>
       <c r="G12">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>81.69</v>
+        <v>1.41</v>
+      </c>
+      <c r="I12">
+        <v>6.9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2389,22 +2404,25 @@
         <v>122</v>
       </c>
       <c r="C13">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>52.46</v>
       </c>
       <c r="G13">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H13">
-        <v>44.26</v>
+        <v>47.54</v>
+      </c>
+      <c r="I13">
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2415,22 +2433,22 @@
         <v>175</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>18.29</v>
+        <v>15.43</v>
       </c>
       <c r="E14">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F14">
-        <v>70.29000000000001</v>
+        <v>72</v>
       </c>
       <c r="G14">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <v>22.29</v>
+        <v>25.71</v>
       </c>
       <c r="I14">
         <v>6.8</v>
@@ -2470,22 +2488,25 @@
         <v>132</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>132</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>100</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>90.15000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2496,22 +2517,25 @@
         <v>57</v>
       </c>
       <c r="C17">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>35.09</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>64.91</v>
       </c>
       <c r="G17">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>64.91</v>
+        <v>35.09</v>
+      </c>
+      <c r="I17">
+        <v>8.6</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2548,22 +2572,25 @@
         <v>74</v>
       </c>
       <c r="C19">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>20.27</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>79.73</v>
       </c>
       <c r="G19">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>20.27</v>
+      </c>
+      <c r="I19">
+        <v>7.4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2574,22 +2601,25 @@
         <v>251</v>
       </c>
       <c r="C20">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>34.66</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>63.75</v>
       </c>
       <c r="G20">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="H20">
-        <v>77.29000000000001</v>
+        <v>28.69</v>
+      </c>
+      <c r="I20">
+        <v>6.9</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2600,25 +2630,25 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D21">
-        <v>46.01</v>
+        <v>37.09</v>
       </c>
       <c r="E21">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F21">
-        <v>53.52</v>
+        <v>62.44</v>
       </c>
       <c r="G21">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H21">
-        <v>29.58</v>
+        <v>22.07</v>
       </c>
       <c r="I21">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2681,22 +2711,25 @@
         <v>78</v>
       </c>
       <c r="C24">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>35.9</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G24">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>67.95</v>
+        <v>25.64</v>
+      </c>
+      <c r="I24">
+        <v>7.1</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2733,22 +2766,25 @@
         <v>90</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>23.33</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>73.33</v>
       </c>
       <c r="G26">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="H26">
-        <v>85.56</v>
+        <v>26.67</v>
+      </c>
+      <c r="I26">
+        <v>8.1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2771,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H27">
-        <v>65.52</v>
+        <v>67.23999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2785,25 +2821,25 @@
         <v>88</v>
       </c>
       <c r="C28">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D28">
-        <v>94.31999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F28">
-        <v>5.68</v>
+        <v>30.68</v>
       </c>
       <c r="G28">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H28">
-        <v>51.14</v>
+        <v>28.41</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2843,25 +2879,25 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="D30">
-        <v>64.76000000000001</v>
+        <v>43.81</v>
       </c>
       <c r="E30">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="F30">
-        <v>32.86</v>
+        <v>53.81</v>
       </c>
       <c r="G30">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>19.05</v>
       </c>
       <c r="I30">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2872,22 +2908,25 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>42.36</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>57.64</v>
       </c>
       <c r="G31">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H31">
-        <v>65.28</v>
+        <v>13.19</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2898,25 +2937,25 @@
         <v>127</v>
       </c>
       <c r="C32">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>74.02</v>
+        <v>32.28</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F32">
-        <v>23.62</v>
+        <v>58.27</v>
       </c>
       <c r="G32">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="H32">
-        <v>76.38</v>
+        <v>41.73</v>
       </c>
       <c r="I32">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3014,22 +3053,25 @@
         <v>147</v>
       </c>
       <c r="C36">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>100</v>
+        <v>13.61</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>74.83</v>
       </c>
       <c r="G36">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>98.64</v>
+        <v>25.17</v>
+      </c>
+      <c r="I36">
+        <v>7.8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3040,22 +3082,22 @@
         <v>91</v>
       </c>
       <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>21.98</v>
+      </c>
+      <c r="E37">
+        <v>70</v>
+      </c>
+      <c r="F37">
+        <v>76.92</v>
+      </c>
+      <c r="G37">
         <v>21</v>
       </c>
-      <c r="D37">
+      <c r="H37">
         <v>23.08</v>
-      </c>
-      <c r="E37">
-        <v>69</v>
-      </c>
-      <c r="F37">
-        <v>75.81999999999999</v>
-      </c>
-      <c r="G37">
-        <v>22</v>
-      </c>
-      <c r="H37">
-        <v>24.18</v>
       </c>
       <c r="I37">
         <v>9.1</v>
@@ -3098,22 +3140,25 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>68.61</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>20.44</v>
       </c>
       <c r="G39">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H39">
-        <v>45.26</v>
+        <v>62.04</v>
+      </c>
+      <c r="I39">
+        <v>6.4</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3124,22 +3169,25 @@
         <v>215</v>
       </c>
       <c r="C40">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>81.86</v>
       </c>
       <c r="G40">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>18.14</v>
+      </c>
+      <c r="I40">
+        <v>7.4</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3176,22 +3224,25 @@
         <v>23</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>4.35</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="G42">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H42">
-        <v>91.3</v>
+        <v>26.09</v>
+      </c>
+      <c r="I42">
+        <v>6.6</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3228,22 +3279,25 @@
         <v>96</v>
       </c>
       <c r="C44">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>76.04000000000001</v>
       </c>
       <c r="G44">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H44">
-        <v>68.75</v>
+        <v>23.96</v>
+      </c>
+      <c r="I44">
+        <v>7.4</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3254,25 +3308,25 @@
         <v>115</v>
       </c>
       <c r="C45">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>75.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="F45">
-        <v>24.35</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>75.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3283,22 +3337,25 @@
         <v>111</v>
       </c>
       <c r="C46">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D46">
-        <v>100</v>
+        <v>45.05</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>54.95</v>
       </c>
       <c r="G46">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="H46">
-        <v>56.76</v>
+        <v>8.109999999999999</v>
+      </c>
+      <c r="I46">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3309,22 +3366,25 @@
         <v>197</v>
       </c>
       <c r="C47">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D47">
-        <v>100</v>
+        <v>90.86</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="G47">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H47">
-        <v>62.44</v>
+        <v>59.9</v>
+      </c>
+      <c r="I47">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3335,22 +3395,25 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>28.98</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>71.02</v>
       </c>
       <c r="G48">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="H48">
-        <v>50</v>
+        <v>6.82</v>
+      </c>
+      <c r="I48">
+        <v>7.3</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3361,25 +3424,25 @@
         <v>123</v>
       </c>
       <c r="C49">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>86.18000000000001</v>
+        <v>57.72</v>
       </c>
       <c r="E49">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F49">
-        <v>13.82</v>
+        <v>42.28</v>
       </c>
       <c r="G49">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H49">
-        <v>40.65</v>
+        <v>57.72</v>
       </c>
       <c r="I49">
-        <v>9.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3390,22 +3453,25 @@
         <v>179</v>
       </c>
       <c r="C50">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="G50">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>100</v>
+        <v>22.35</v>
+      </c>
+      <c r="I50">
+        <v>7.9</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3490,16 +3556,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>26.47</v>
+        <v>23.53</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>73.53</v>
+        <v>76.47</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3508,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3519,16 +3585,16 @@
         <v>145</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>10.34</v>
+        <v>9.66</v>
       </c>
       <c r="E3">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F3">
-        <v>89.66</v>
+        <v>90.34</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3635,16 +3701,16 @@
         <v>118</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>32.2</v>
+        <v>30.51</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7">
-        <v>67.8</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3693,25 +3759,25 @@
         <v>97</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>20.62</v>
+        <v>1.03</v>
       </c>
       <c r="E9">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F9">
-        <v>79.38</v>
+        <v>74.23</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>24.74</v>
       </c>
       <c r="I9">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3722,10 +3788,10 @@
         <v>151</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>26.49</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>92</v>
@@ -3734,13 +3800,13 @@
         <v>60.93</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="H10">
-        <v>12.58</v>
+        <v>39.07</v>
       </c>
       <c r="I10">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3751,16 +3817,16 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>28.21</v>
+        <v>25.64</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>71.79000000000001</v>
+        <v>74.36</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3769,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3780,16 +3846,16 @@
         <v>71</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>18.31</v>
+        <v>12.68</v>
       </c>
       <c r="E12">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F12">
-        <v>81.69</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3798,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3809,25 +3875,25 @@
         <v>122</v>
       </c>
       <c r="C13">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>55.74</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F13">
-        <v>44.26</v>
+        <v>52.46</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>47.54</v>
       </c>
       <c r="I13">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3838,25 +3904,25 @@
         <v>175</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>7.43</v>
+        <v>2.29</v>
       </c>
       <c r="E14">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F14">
-        <v>72</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="G14">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>20.57</v>
+        <v>25.14</v>
       </c>
       <c r="I14">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3896,16 +3962,16 @@
         <v>132</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>9.85</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <v>90.15000000000001</v>
+        <v>100</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3914,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3925,25 +3991,25 @@
         <v>57</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>35.09</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>64.91</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>29.82</v>
       </c>
       <c r="I17">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4012,25 +4078,25 @@
         <v>251</v>
       </c>
       <c r="C20">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>22.71</v>
+        <v>7.57</v>
       </c>
       <c r="E20">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F20">
-        <v>77.29000000000001</v>
+        <v>83.67</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="I20">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4041,22 +4107,22 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>16.9</v>
+        <v>15.49</v>
       </c>
       <c r="E21">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F21">
-        <v>82.16</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0.9399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="I21">
         <v>7.2</v>
@@ -4128,25 +4194,25 @@
         <v>78</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>32.05</v>
+        <v>10.26</v>
       </c>
       <c r="E24">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F24">
-        <v>67.95</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.26</v>
       </c>
       <c r="I24">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4186,25 +4252,25 @@
         <v>90</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>14.44</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F26">
-        <v>85.56</v>
+        <v>87.78</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="I26">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4215,16 +4281,16 @@
         <v>116</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>34.48</v>
+        <v>32.76</v>
       </c>
       <c r="E27">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F27">
-        <v>65.52</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4233,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4244,16 +4310,16 @@
         <v>88</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>43.18</v>
+        <v>40.91</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F28">
-        <v>56.82</v>
+        <v>59.09</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4262,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4331,16 +4397,16 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D31">
-        <v>34.72</v>
+        <v>29.17</v>
       </c>
       <c r="E31">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F31">
-        <v>65.28</v>
+        <v>70.83</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4349,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4366,16 +4432,16 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F32">
-        <v>63.78</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="G32">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32">
-        <v>36.22</v>
+        <v>35.43</v>
       </c>
       <c r="I32">
         <v>6.9</v>
@@ -4476,25 +4542,25 @@
         <v>147</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F36">
-        <v>83.67</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36">
-        <v>14.97</v>
+        <v>14.29</v>
       </c>
       <c r="I36">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4563,25 +4629,25 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>54.74</v>
+        <v>17.52</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F39">
-        <v>45.26</v>
+        <v>49.64</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>32.85</v>
       </c>
       <c r="I39">
-        <v>7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4598,16 +4664,16 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F40">
-        <v>86.98</v>
+        <v>81.86</v>
       </c>
       <c r="G40">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>13.02</v>
+        <v>18.14</v>
       </c>
       <c r="I40">
         <v>7.6</v>
@@ -4650,25 +4716,25 @@
         <v>23</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>8.699999999999999</v>
+        <v>4.35</v>
       </c>
       <c r="E42">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>82.61</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H42">
-        <v>8.699999999999999</v>
+        <v>26.09</v>
       </c>
       <c r="I42">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4708,25 +4774,25 @@
         <v>96</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F44">
-        <v>68.75</v>
+        <v>76.04000000000001</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>23.96</v>
       </c>
       <c r="I44">
-        <v>8.699999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4766,16 +4832,16 @@
         <v>111</v>
       </c>
       <c r="C46">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D46">
-        <v>43.24</v>
+        <v>36.94</v>
       </c>
       <c r="E46">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F46">
-        <v>56.76</v>
+        <v>63.06</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4784,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4795,25 +4861,25 @@
         <v>197</v>
       </c>
       <c r="C47">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D47">
-        <v>37.56</v>
+        <v>30.96</v>
       </c>
       <c r="E47">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F47">
-        <v>62.44</v>
+        <v>64.97</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>4.06</v>
       </c>
       <c r="I47">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4824,16 +4890,16 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D48">
-        <v>50</v>
+        <v>22.16</v>
       </c>
       <c r="E48">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>77.84</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4842,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4853,25 +4919,25 @@
         <v>123</v>
       </c>
       <c r="C49">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>45.53</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F49">
-        <v>54.47</v>
+        <v>61.79</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>38.21</v>
       </c>
       <c r="I49">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4888,16 +4954,16 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F50">
-        <v>79.33</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="G50">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>20.67</v>
+        <v>22.35</v>
       </c>
       <c r="I50">
         <v>8</v>

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -683,16 +683,16 @@
         <v>80</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>41.25</v>
+        <v>26.25</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F5">
-        <v>58.75</v>
+        <v>73.75</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -799,10 +799,10 @@
         <v>97</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>81</v>
@@ -811,13 +811,13 @@
         <v>83.51000000000001</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>15.46</v>
+        <v>16.49</v>
       </c>
       <c r="I9">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1060,16 +1060,16 @@
         <v>247</v>
       </c>
       <c r="C18">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>19.84</v>
+        <v>19.03</v>
       </c>
       <c r="E18">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F18">
-        <v>80.16</v>
+        <v>80.97</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>11.76</v>
+        <v>10.29</v>
       </c>
       <c r="E22">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F22">
-        <v>65.69</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="G22">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H22">
-        <v>22.55</v>
+        <v>23.53</v>
       </c>
       <c r="I22">
         <v>7.2</v>
@@ -1205,16 +1205,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23">
-        <v>41.59</v>
+        <v>38.94</v>
       </c>
       <c r="E23">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F23">
-        <v>58.41</v>
+        <v>61.06</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1234,10 +1234,10 @@
         <v>78</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>10.26</v>
+        <v>3.85</v>
       </c>
       <c r="E24">
         <v>59</v>
@@ -1246,13 +1246,13 @@
         <v>75.64</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H24">
-        <v>14.1</v>
+        <v>20.51</v>
       </c>
       <c r="I24">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1263,16 +1263,16 @@
         <v>180</v>
       </c>
       <c r="C25">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>31.67</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="F25">
-        <v>68.33</v>
+        <v>100</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1321,16 +1321,16 @@
         <v>116</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>32.76</v>
+        <v>27.59</v>
       </c>
       <c r="E27">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F27">
-        <v>67.23999999999999</v>
+        <v>72.41</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1408,16 +1408,16 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D30">
-        <v>27.14</v>
+        <v>24.76</v>
       </c>
       <c r="E30">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F30">
-        <v>68.09999999999999</v>
+        <v>70.48</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -1669,10 +1669,10 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>17.52</v>
+        <v>9.49</v>
       </c>
       <c r="E39">
         <v>74</v>
@@ -1681,13 +1681,13 @@
         <v>54.01</v>
       </c>
       <c r="G39">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H39">
-        <v>28.47</v>
+        <v>36.5</v>
       </c>
       <c r="I39">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1727,10 +1727,10 @@
         <v>115</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>92</v>
@@ -1739,13 +1739,13 @@
         <v>80</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I41">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1785,16 +1785,16 @@
         <v>94</v>
       </c>
       <c r="C43">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>71.28</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F43">
-        <v>28.72</v>
+        <v>100</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1901,25 +1901,25 @@
         <v>197</v>
       </c>
       <c r="C47">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>30.96</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F47">
-        <v>64.97</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H47">
-        <v>4.06</v>
+        <v>30.46</v>
       </c>
       <c r="I47">
-        <v>7.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1930,16 +1930,16 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D48">
-        <v>22.16</v>
+        <v>16.48</v>
       </c>
       <c r="E48">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F48">
-        <v>77.84</v>
+        <v>83.52</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2149,22 +2149,25 @@
         <v>164</v>
       </c>
       <c r="C4">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>39.02</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>44.51</v>
       </c>
       <c r="G4">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>55.49</v>
+      </c>
+      <c r="I4">
+        <v>7.6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2175,22 +2178,25 @@
         <v>80</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>58.75</v>
+        <v>3.75</v>
+      </c>
+      <c r="I5">
+        <v>7.8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2288,10 +2294,10 @@
         <v>97</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>72</v>
@@ -2300,10 +2306,10 @@
         <v>74.23</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>24.74</v>
+        <v>25.77</v>
       </c>
       <c r="I9">
         <v>7.6</v>
@@ -2346,25 +2352,25 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>15.38</v>
+      </c>
+      <c r="I11">
         <v>7</v>
-      </c>
-      <c r="H11">
-        <v>17.95</v>
-      </c>
-      <c r="I11">
-        <v>6.9</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2546,22 +2552,25 @@
         <v>247</v>
       </c>
       <c r="C18">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>27.94</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>72.06</v>
       </c>
       <c r="G18">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="H18">
-        <v>80.16</v>
+        <v>8.91</v>
+      </c>
+      <c r="I18">
+        <v>7.7</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2659,22 +2668,25 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>31.86</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>64.22</v>
       </c>
       <c r="G22">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="H22">
-        <v>88.23999999999999</v>
+        <v>25.49</v>
+      </c>
+      <c r="I22">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2685,22 +2697,25 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>60.18</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>39.82</v>
       </c>
       <c r="G23">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="H23">
-        <v>58.41</v>
+        <v>21.24</v>
+      </c>
+      <c r="I23">
+        <v>8.4</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2711,25 +2726,25 @@
         <v>78</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>35.9</v>
+        <v>30.77</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F24">
-        <v>64.09999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24">
-        <v>25.64</v>
+        <v>26.92</v>
       </c>
       <c r="I24">
-        <v>7.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2740,22 +2755,25 @@
         <v>180</v>
       </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>180</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>100</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>68.33</v>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2766,25 +2784,25 @@
         <v>90</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>23.33</v>
+        <v>17.78</v>
       </c>
       <c r="E26">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F26">
-        <v>73.33</v>
+        <v>77.78</v>
       </c>
       <c r="G26">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H26">
-        <v>26.67</v>
+        <v>22.22</v>
       </c>
       <c r="I26">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2795,22 +2813,25 @@
         <v>116</v>
       </c>
       <c r="C27">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>43.97</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>56.03</v>
       </c>
       <c r="G27">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="H27">
-        <v>67.23999999999999</v>
+        <v>16.38</v>
+      </c>
+      <c r="I27">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2879,25 +2900,25 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D30">
-        <v>43.81</v>
+        <v>37.14</v>
       </c>
       <c r="E30">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F30">
-        <v>53.81</v>
+        <v>60.48</v>
       </c>
       <c r="G30">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>19.05</v>
+        <v>14.76</v>
       </c>
       <c r="I30">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3140,25 +3161,25 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D39">
-        <v>68.61</v>
+        <v>51.09</v>
       </c>
       <c r="E39">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F39">
-        <v>20.44</v>
+        <v>36.5</v>
       </c>
       <c r="G39">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H39">
-        <v>62.04</v>
+        <v>54.01</v>
       </c>
       <c r="I39">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3198,22 +3219,25 @@
         <v>115</v>
       </c>
       <c r="C41">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>100</v>
+        <v>24.35</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>55.65</v>
       </c>
       <c r="G41">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H41">
-        <v>80</v>
+        <v>44.35</v>
+      </c>
+      <c r="I41">
+        <v>7.3</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3253,22 +3277,25 @@
         <v>94</v>
       </c>
       <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>94</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>100</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
       <c r="G43">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>28.72</v>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3366,25 +3393,25 @@
         <v>197</v>
       </c>
       <c r="C47">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="D47">
-        <v>90.86</v>
+        <v>44.16</v>
       </c>
       <c r="E47">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="F47">
-        <v>9.140000000000001</v>
+        <v>54.82</v>
       </c>
       <c r="G47">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="H47">
-        <v>59.9</v>
+        <v>45.18</v>
       </c>
       <c r="I47">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3395,25 +3422,25 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D48">
-        <v>28.98</v>
+        <v>16.48</v>
       </c>
       <c r="E48">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="F48">
-        <v>71.02</v>
+        <v>83.52</v>
       </c>
       <c r="G48">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>6.82</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3424,22 +3451,22 @@
         <v>123</v>
       </c>
       <c r="C49">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D49">
-        <v>57.72</v>
+        <v>55.28</v>
       </c>
       <c r="E49">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F49">
-        <v>42.28</v>
+        <v>44.72</v>
       </c>
       <c r="G49">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H49">
-        <v>57.72</v>
+        <v>55.28</v>
       </c>
       <c r="I49">
         <v>8.800000000000001</v>
@@ -3620,16 +3647,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F4">
-        <v>69.51000000000001</v>
+        <v>70.12</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4">
-        <v>30.49</v>
+        <v>29.88</v>
       </c>
       <c r="I4">
         <v>7.8</v>
@@ -3643,16 +3670,16 @@
         <v>80</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>41.25</v>
+        <v>26.25</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F5">
-        <v>58.75</v>
+        <v>73.75</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3661,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3759,10 +3786,10 @@
         <v>97</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>72</v>
@@ -3771,13 +3798,13 @@
         <v>74.23</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>24.74</v>
+        <v>25.77</v>
       </c>
       <c r="I9">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4020,16 +4047,16 @@
         <v>247</v>
       </c>
       <c r="C18">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>19.84</v>
+        <v>19.03</v>
       </c>
       <c r="E18">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F18">
-        <v>80.16</v>
+        <v>80.97</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -4136,22 +4163,22 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>11.76</v>
+        <v>10.29</v>
       </c>
       <c r="E22">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F22">
-        <v>65.69</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="G22">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>22.55</v>
+        <v>18.14</v>
       </c>
       <c r="I22">
         <v>7.2</v>
@@ -4165,16 +4192,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23">
-        <v>41.59</v>
+        <v>38.94</v>
       </c>
       <c r="E23">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F23">
-        <v>58.41</v>
+        <v>61.06</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4183,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4194,10 +4221,10 @@
         <v>78</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>10.26</v>
+        <v>3.85</v>
       </c>
       <c r="E24">
         <v>62</v>
@@ -4206,13 +4233,13 @@
         <v>79.48999999999999</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H24">
-        <v>10.26</v>
+        <v>16.67</v>
       </c>
       <c r="I24">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4223,16 +4250,16 @@
         <v>180</v>
       </c>
       <c r="C25">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>31.67</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="F25">
-        <v>68.33</v>
+        <v>100</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -4241,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4281,16 +4308,16 @@
         <v>116</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>32.76</v>
+        <v>27.59</v>
       </c>
       <c r="E27">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F27">
-        <v>67.23999999999999</v>
+        <v>72.41</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4299,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4368,16 +4395,16 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D30">
-        <v>27.14</v>
+        <v>24.76</v>
       </c>
       <c r="E30">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F30">
-        <v>67.62</v>
+        <v>70</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -4629,10 +4656,10 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>17.52</v>
+        <v>9.49</v>
       </c>
       <c r="E39">
         <v>68</v>
@@ -4641,13 +4668,13 @@
         <v>49.64</v>
       </c>
       <c r="G39">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H39">
-        <v>32.85</v>
+        <v>40.88</v>
       </c>
       <c r="I39">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4687,25 +4714,25 @@
         <v>115</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F41">
-        <v>80</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>33.04</v>
       </c>
       <c r="I41">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4745,16 +4772,16 @@
         <v>94</v>
       </c>
       <c r="C43">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>71.28</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F43">
-        <v>28.72</v>
+        <v>100</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4763,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4861,25 +4888,25 @@
         <v>197</v>
       </c>
       <c r="C47">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>30.96</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F47">
-        <v>64.97</v>
+        <v>70.56</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="H47">
-        <v>4.06</v>
+        <v>29.44</v>
       </c>
       <c r="I47">
-        <v>7.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4890,16 +4917,16 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D48">
-        <v>22.16</v>
+        <v>16.48</v>
       </c>
       <c r="E48">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F48">
-        <v>77.84</v>
+        <v>83.52</v>
       </c>
       <c r="G48">
         <v>0</v>

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -2149,25 +2149,25 @@
         <v>164</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>39.02</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="F4">
-        <v>44.51</v>
+        <v>71.34</v>
       </c>
       <c r="G4">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>55.49</v>
+        <v>28.66</v>
       </c>
       <c r="I4">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2468,22 +2468,25 @@
         <v>37</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>56.76</v>
       </c>
       <c r="G15">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>43.24</v>
+      </c>
+      <c r="I15">
+        <v>6.4</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2697,25 +2700,25 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>60.18</v>
+        <v>47.79</v>
       </c>
       <c r="E23">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F23">
-        <v>39.82</v>
+        <v>52.21</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>21.24</v>
+        <v>8.85</v>
       </c>
       <c r="I23">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3393,25 +3396,25 @@
         <v>197</v>
       </c>
       <c r="C47">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D47">
-        <v>44.16</v>
+        <v>42.64</v>
       </c>
       <c r="E47">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F47">
-        <v>54.82</v>
+        <v>55.33</v>
       </c>
       <c r="G47">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H47">
-        <v>45.18</v>
+        <v>44.67</v>
       </c>
       <c r="I47">
-        <v>8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3647,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4">
-        <v>70.12</v>
+        <v>71.34</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>29.88</v>
+        <v>28.66</v>
       </c>
       <c r="I4">
         <v>7.8</v>
@@ -3966,16 +3969,16 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>54.05</v>
+        <v>56.76</v>
       </c>
       <c r="G15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15">
-        <v>45.95</v>
+        <v>43.24</v>
       </c>
       <c r="I15">
         <v>6.9</v>
@@ -4894,16 +4897,16 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F47">
-        <v>70.56</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="G47">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H47">
-        <v>29.44</v>
+        <v>28.93</v>
       </c>
       <c r="I47">
         <v>7</v>

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -1669,10 +1669,10 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>9.49</v>
+        <v>0.73</v>
       </c>
       <c r="E39">
         <v>74</v>
@@ -1681,13 +1681,13 @@
         <v>54.01</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H39">
-        <v>36.5</v>
+        <v>45.26</v>
       </c>
       <c r="I39">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2787,25 +2787,25 @@
         <v>90</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>17.78</v>
+        <v>14.44</v>
       </c>
       <c r="E26">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26">
-        <v>77.78</v>
+        <v>78.89</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26">
-        <v>22.22</v>
+        <v>21.11</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2845,25 +2845,25 @@
         <v>88</v>
       </c>
       <c r="C28">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28">
-        <v>69.31999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F28">
-        <v>30.68</v>
+        <v>34.09</v>
       </c>
       <c r="G28">
+        <v>22</v>
+      </c>
+      <c r="H28">
         <v>25</v>
       </c>
-      <c r="H28">
-        <v>28.41</v>
-      </c>
       <c r="I28">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3164,22 +3164,22 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D39">
-        <v>51.09</v>
+        <v>46.72</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F39">
-        <v>36.5</v>
+        <v>39.42</v>
       </c>
       <c r="G39">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H39">
-        <v>54.01</v>
+        <v>59.85</v>
       </c>
       <c r="I39">
         <v>6.6</v>
@@ -4659,10 +4659,10 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>9.49</v>
+        <v>0.73</v>
       </c>
       <c r="E39">
         <v>68</v>
@@ -4671,13 +4671,13 @@
         <v>49.64</v>
       </c>
       <c r="G39">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H39">
-        <v>40.88</v>
+        <v>49.64</v>
       </c>
       <c r="I39">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="40" spans="1:9">

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F4">
-        <v>69.51000000000001</v>
+        <v>70.73</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>30.49</v>
+        <v>29.27</v>
       </c>
       <c r="I4">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1147,16 +1147,16 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>15.49</v>
+        <v>15.02</v>
       </c>
       <c r="E21">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F21">
-        <v>82.63</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F34">
-        <v>81.75</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34">
-        <v>18.25</v>
+        <v>17.46</v>
       </c>
       <c r="I34">
         <v>7.8</v>
@@ -1669,10 +1669,10 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>74</v>
@@ -1681,10 +1681,10 @@
         <v>54.01</v>
       </c>
       <c r="G39">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H39">
-        <v>45.26</v>
+        <v>45.99</v>
       </c>
       <c r="I39">
         <v>6.1</v>
@@ -2155,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F4">
-        <v>71.34</v>
+        <v>71.95</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4">
-        <v>28.66</v>
+        <v>28.05</v>
       </c>
       <c r="I4">
         <v>7.5</v>
@@ -2642,22 +2642,22 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21">
-        <v>37.09</v>
+        <v>35.68</v>
       </c>
       <c r="E21">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F21">
-        <v>62.44</v>
+        <v>63.85</v>
       </c>
       <c r="G21">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>22.07</v>
+        <v>21.13</v>
       </c>
       <c r="I21">
         <v>7.9</v>
@@ -2932,22 +2932,22 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31">
-        <v>42.36</v>
+        <v>40.28</v>
       </c>
       <c r="E31">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F31">
-        <v>57.64</v>
+        <v>59.72</v>
       </c>
       <c r="G31">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H31">
-        <v>13.19</v>
+        <v>11.11</v>
       </c>
       <c r="I31">
         <v>8</v>
@@ -3077,22 +3077,22 @@
         <v>147</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>13.61</v>
+        <v>12.93</v>
       </c>
       <c r="E36">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>74.83</v>
+        <v>75.51000000000001</v>
       </c>
       <c r="G36">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>25.17</v>
+        <v>24.49</v>
       </c>
       <c r="I36">
         <v>7.8</v>
@@ -3106,10 +3106,10 @@
         <v>91</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>21.98</v>
+        <v>18.68</v>
       </c>
       <c r="E37">
         <v>70</v>
@@ -3124,7 +3124,7 @@
         <v>23.08</v>
       </c>
       <c r="I37">
-        <v>9.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3164,16 +3164,16 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D39">
-        <v>46.72</v>
+        <v>42.34</v>
       </c>
       <c r="E39">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39">
-        <v>39.42</v>
+        <v>40.15</v>
       </c>
       <c r="G39">
         <v>82</v>
@@ -3182,7 +3182,7 @@
         <v>59.85</v>
       </c>
       <c r="I39">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3650,19 +3650,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F4">
-        <v>71.34</v>
+        <v>71.95</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4">
-        <v>28.66</v>
+        <v>28.05</v>
       </c>
       <c r="I4">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4137,16 +4137,16 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>15.49</v>
+        <v>15.02</v>
       </c>
       <c r="E21">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F21">
-        <v>84.04000000000001</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4607,16 +4607,16 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37">
-        <v>91.20999999999999</v>
+        <v>90.11</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H37">
-        <v>8.789999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="I37">
         <v>8</v>
@@ -4659,22 +4659,22 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F39">
-        <v>49.64</v>
+        <v>48.18</v>
       </c>
       <c r="G39">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H39">
-        <v>49.64</v>
+        <v>51.82</v>
       </c>
       <c r="I39">
         <v>6.1</v>

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -81,7 +81,7 @@
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
-    <t>Duran Amezcua Maria Angelica</t>
+    <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
     <t>Fernández Castro Araceli</t>
@@ -114,7 +114,7 @@
     <t>Herrera Serrano Mayra Iliana</t>
   </si>
   <si>
-    <t>Jimenez Nieto Enrique</t>
+    <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>Martínez López Miguel Ángel</t>
@@ -180,7 +180,7 @@
     <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
+    <t>Velasco Sánchez David</t>
   </si>
   <si>
     <t>Villanueva Morales Luis Arturo</t>
@@ -596,16 +596,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>23.53</v>
+        <v>22.55</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>76.47</v>
+        <v>77.45</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>88</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>40.91</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F28">
-        <v>56.82</v>
+        <v>97.73</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1368,7 +1368,7 @@
         <v>2.27</v>
       </c>
       <c r="I28">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1408,10 +1408,10 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>24.76</v>
+        <v>24.29</v>
       </c>
       <c r="E30">
         <v>148</v>
@@ -1420,13 +1420,13 @@
         <v>70.48</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H30">
-        <v>4.76</v>
+        <v>5.24</v>
       </c>
       <c r="I30">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1437,16 +1437,16 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>29.17</v>
+        <v>25.69</v>
       </c>
       <c r="E31">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F31">
-        <v>70.83</v>
+        <v>74.31</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2091,16 +2091,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>23.53</v>
+        <v>22.55</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>76.47</v>
+        <v>77.45</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2642,25 +2642,25 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D21">
-        <v>35.68</v>
+        <v>34.27</v>
       </c>
       <c r="E21">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F21">
-        <v>63.85</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="G21">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>21.13</v>
+        <v>19.72</v>
       </c>
       <c r="I21">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2845,25 +2845,25 @@
         <v>88</v>
       </c>
       <c r="C28">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>65.91</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F28">
-        <v>34.09</v>
+        <v>100</v>
       </c>
       <c r="G28">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2903,22 +2903,22 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D30">
-        <v>37.14</v>
+        <v>35.71</v>
       </c>
       <c r="E30">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F30">
-        <v>60.48</v>
+        <v>61.9</v>
       </c>
       <c r="G30">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>14.76</v>
+        <v>13.81</v>
       </c>
       <c r="I30">
         <v>7.7</v>
@@ -2932,22 +2932,22 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>40.28</v>
+        <v>35.42</v>
       </c>
       <c r="E31">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F31">
-        <v>59.72</v>
+        <v>64.58</v>
       </c>
       <c r="G31">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H31">
-        <v>11.11</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="I31">
         <v>8</v>
@@ -3077,22 +3077,22 @@
         <v>147</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>12.93</v>
+        <v>12.24</v>
       </c>
       <c r="E36">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F36">
-        <v>75.51000000000001</v>
+        <v>76.19</v>
       </c>
       <c r="G36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36">
-        <v>24.49</v>
+        <v>23.81</v>
       </c>
       <c r="I36">
         <v>7.8</v>
@@ -3586,16 +3586,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>23.53</v>
+        <v>22.55</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>76.47</v>
+        <v>77.45</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4340,16 +4340,16 @@
         <v>88</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>40.91</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F28">
-        <v>59.09</v>
+        <v>100</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4398,16 +4398,16 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>24.76</v>
+        <v>24.29</v>
       </c>
       <c r="E30">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F30">
-        <v>70</v>
+        <v>70.48</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -4416,7 +4416,7 @@
         <v>5.24</v>
       </c>
       <c r="I30">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4427,16 +4427,16 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>29.17</v>
+        <v>25.69</v>
       </c>
       <c r="E31">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F31">
-        <v>70.83</v>
+        <v>74.31</v>
       </c>
       <c r="G31">
         <v>0</v>

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -596,16 +596,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>22.55</v>
+        <v>19.61</v>
       </c>
       <c r="E2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>77.45</v>
+        <v>80.39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -625,16 +625,16 @@
         <v>145</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>9.66</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F3">
-        <v>90.34</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -683,25 +683,25 @@
         <v>80</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F5">
-        <v>73.75</v>
+        <v>82.5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="I5">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -741,25 +741,25 @@
         <v>118</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>30.51</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F7">
-        <v>69.48999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>16.95</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -857,16 +857,16 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>25.64</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>74.36</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -886,25 +886,25 @@
         <v>71</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>12.68</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F12">
-        <v>87.31999999999999</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="I12">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -944,22 +944,22 @@
         <v>175</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F14">
-        <v>75.43000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="G14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14">
-        <v>22.29</v>
+        <v>22.86</v>
       </c>
       <c r="I14">
         <v>6.8</v>
@@ -1118,25 +1118,25 @@
         <v>251</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>7.57</v>
+        <v>4.38</v>
       </c>
       <c r="E20">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F20">
-        <v>83.67</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H20">
-        <v>8.76</v>
+        <v>11.16</v>
       </c>
       <c r="I20">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1147,16 +1147,16 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>15.02</v>
+        <v>11.74</v>
       </c>
       <c r="E21">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F21">
-        <v>83.09999999999999</v>
+        <v>86.38</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -1165,7 +1165,7 @@
         <v>1.88</v>
       </c>
       <c r="I21">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1176,25 +1176,25 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>10.29</v>
+        <v>6.37</v>
       </c>
       <c r="E22">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>66.18000000000001</v>
+        <v>69.61</v>
       </c>
       <c r="G22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22">
-        <v>23.53</v>
+        <v>24.02</v>
       </c>
       <c r="I22">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1205,16 +1205,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>38.94</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="F23">
-        <v>61.06</v>
+        <v>100</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1234,25 +1234,25 @@
         <v>78</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24">
-        <v>75.64</v>
+        <v>76.92</v>
       </c>
       <c r="G24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H24">
-        <v>20.51</v>
+        <v>23.08</v>
       </c>
       <c r="I24">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1321,25 +1321,25 @@
         <v>116</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>27.59</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="F27">
-        <v>72.41</v>
+        <v>99.14</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="I27">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1408,25 +1408,25 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>24.29</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F30">
-        <v>70.48</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H30">
-        <v>5.24</v>
+        <v>21.9</v>
       </c>
       <c r="I30">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>25.69</v>
+        <v>22.22</v>
       </c>
       <c r="E31">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F31">
-        <v>74.31</v>
+        <v>77.08</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I31">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1495,25 +1495,25 @@
         <v>177</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>10.73</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F33">
-        <v>76.84</v>
+        <v>81.36</v>
       </c>
       <c r="G33">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>12.43</v>
+        <v>18.64</v>
       </c>
       <c r="I33">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1553,25 +1553,25 @@
         <v>149</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D35">
-        <v>53.69</v>
+        <v>34.9</v>
       </c>
       <c r="E35">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F35">
-        <v>46.31</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="I35">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1640,25 +1640,25 @@
         <v>98</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>21.43</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F38">
-        <v>75.51000000000001</v>
+        <v>92.86</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H38">
-        <v>3.06</v>
+        <v>7.14</v>
       </c>
       <c r="I38">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1756,10 +1756,10 @@
         <v>23</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>19</v>
@@ -1768,13 +1768,13 @@
         <v>82.61</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>13.04</v>
+        <v>17.39</v>
       </c>
       <c r="I42">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1930,22 +1930,22 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>16.48</v>
+        <v>14.77</v>
       </c>
       <c r="E48">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F48">
-        <v>83.52</v>
+        <v>84.66</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="I48">
         <v>7.3</v>
@@ -2091,16 +2091,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>22.55</v>
+        <v>19.61</v>
       </c>
       <c r="E2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>77.45</v>
+        <v>80.39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2120,25 +2120,25 @@
         <v>145</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.34</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2178,25 +2178,25 @@
         <v>80</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>81.25</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>3.75</v>
+        <v>18.75</v>
       </c>
       <c r="I5">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2207,10 +2207,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1.69</v>
+        <v>0.85</v>
       </c>
       <c r="E6">
         <v>92</v>
@@ -2236,25 +2236,25 @@
         <v>118</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>53.39</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="F7">
-        <v>46.61</v>
+        <v>78.81</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7">
-        <v>22.88</v>
+        <v>21.19</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2265,25 +2265,25 @@
         <v>226</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>9.73</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F8">
-        <v>64.59999999999999</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="G8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8">
-        <v>35.4</v>
+        <v>34.51</v>
       </c>
       <c r="I8">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2352,25 +2352,25 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>41.03</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>58.97</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2381,25 +2381,25 @@
         <v>71</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>14.08</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F12">
-        <v>85.92</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>1.41</v>
+        <v>2.82</v>
       </c>
       <c r="I12">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2439,25 +2439,25 @@
         <v>175</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>15.43</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="F14">
-        <v>72</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="G14">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="H14">
-        <v>25.71</v>
+        <v>12.57</v>
       </c>
       <c r="I14">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2526,25 +2526,25 @@
         <v>57</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>35.09</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>64.91</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H17">
-        <v>35.09</v>
+        <v>28.07</v>
       </c>
       <c r="I17">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2584,25 +2584,25 @@
         <v>74</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>20.27</v>
+        <v>1.35</v>
       </c>
       <c r="E19">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F19">
-        <v>79.73</v>
+        <v>83.78</v>
       </c>
       <c r="G19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H19">
-        <v>20.27</v>
+        <v>16.22</v>
       </c>
       <c r="I19">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2613,25 +2613,25 @@
         <v>251</v>
       </c>
       <c r="C20">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>34.66</v>
+        <v>11.16</v>
       </c>
       <c r="E20">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F20">
-        <v>63.75</v>
+        <v>75.7</v>
       </c>
       <c r="G20">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H20">
-        <v>28.69</v>
+        <v>19.92</v>
       </c>
       <c r="I20">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2642,25 +2642,25 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>34.27</v>
+        <v>26.29</v>
       </c>
       <c r="E21">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F21">
-        <v>65.26000000000001</v>
+        <v>72.77</v>
       </c>
       <c r="G21">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>19.72</v>
+        <v>15.49</v>
       </c>
       <c r="I21">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2671,25 +2671,25 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>31.86</v>
+        <v>12.75</v>
       </c>
       <c r="E22">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="F22">
-        <v>64.22</v>
+        <v>80.39</v>
       </c>
       <c r="G22">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>25.49</v>
+        <v>13.24</v>
       </c>
       <c r="I22">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2700,25 +2700,25 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>47.79</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="F23">
-        <v>52.21</v>
+        <v>99.12</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
       <c r="I23">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2729,25 +2729,25 @@
         <v>78</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>30.77</v>
+        <v>1.28</v>
       </c>
       <c r="E24">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F24">
-        <v>69.23</v>
+        <v>80.77</v>
       </c>
       <c r="G24">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H24">
-        <v>26.92</v>
+        <v>19.23</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2787,25 +2787,25 @@
         <v>90</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>14.44</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F26">
-        <v>78.89</v>
+        <v>86.67</v>
       </c>
       <c r="G26">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>21.11</v>
+        <v>13.33</v>
       </c>
       <c r="I26">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2816,25 +2816,25 @@
         <v>116</v>
       </c>
       <c r="C27">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>43.97</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F27">
-        <v>56.03</v>
+        <v>99.14</v>
       </c>
       <c r="G27">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>16.38</v>
+        <v>0.86</v>
       </c>
       <c r="I27">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2903,25 +2903,25 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>35.71</v>
+        <v>0.95</v>
       </c>
       <c r="E30">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F30">
-        <v>61.9</v>
+        <v>77.14</v>
       </c>
       <c r="G30">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H30">
-        <v>13.81</v>
+        <v>22.86</v>
       </c>
       <c r="I30">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2932,25 +2932,25 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>35.42</v>
+        <v>22.22</v>
       </c>
       <c r="E31">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F31">
-        <v>64.58</v>
+        <v>77.08</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>9.720000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2961,25 +2961,25 @@
         <v>127</v>
       </c>
       <c r="C32">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>32.28</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F32">
-        <v>58.27</v>
+        <v>70.87</v>
       </c>
       <c r="G32">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>41.73</v>
+        <v>29.13</v>
       </c>
       <c r="I32">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2990,25 +2990,25 @@
         <v>177</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>29.94</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="F33">
-        <v>67.8</v>
+        <v>85.88</v>
       </c>
       <c r="G33">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H33">
-        <v>21.47</v>
+        <v>14.12</v>
       </c>
       <c r="I33">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3048,25 +3048,25 @@
         <v>149</v>
       </c>
       <c r="C35">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D35">
-        <v>71.81</v>
+        <v>43.62</v>
       </c>
       <c r="E35">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F35">
-        <v>28.19</v>
+        <v>55.7</v>
       </c>
       <c r="G35">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H35">
-        <v>18.12</v>
+        <v>9.4</v>
       </c>
       <c r="I35">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3077,25 +3077,25 @@
         <v>147</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>12.24</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F36">
-        <v>76.19</v>
+        <v>86.39</v>
       </c>
       <c r="G36">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H36">
-        <v>23.81</v>
+        <v>13.61</v>
       </c>
       <c r="I36">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3106,25 +3106,25 @@
         <v>91</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>18.68</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F37">
-        <v>76.92</v>
+        <v>91.20999999999999</v>
       </c>
       <c r="G37">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H37">
-        <v>23.08</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I37">
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3135,25 +3135,25 @@
         <v>98</v>
       </c>
       <c r="C38">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>34.69</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F38">
-        <v>63.27</v>
+        <v>92.86</v>
       </c>
       <c r="G38">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H38">
-        <v>15.31</v>
+        <v>7.14</v>
       </c>
       <c r="I38">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3164,25 +3164,25 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>42.34</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F39">
-        <v>40.15</v>
+        <v>45.26</v>
       </c>
       <c r="G39">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H39">
-        <v>59.85</v>
+        <v>54.74</v>
       </c>
       <c r="I39">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3222,25 +3222,25 @@
         <v>115</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>24.35</v>
+        <v>12.17</v>
       </c>
       <c r="E41">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F41">
-        <v>55.65</v>
+        <v>60</v>
       </c>
       <c r="G41">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>44.35</v>
+        <v>40</v>
       </c>
       <c r="I41">
-        <v>7.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3251,10 +3251,10 @@
         <v>23</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>16</v>
@@ -3263,10 +3263,10 @@
         <v>69.56999999999999</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>26.09</v>
+        <v>30.43</v>
       </c>
       <c r="I42">
         <v>6.6</v>
@@ -3396,25 +3396,25 @@
         <v>197</v>
       </c>
       <c r="C47">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>42.64</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="F47">
-        <v>55.33</v>
+        <v>75.13</v>
       </c>
       <c r="G47">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="H47">
-        <v>44.67</v>
+        <v>24.87</v>
       </c>
       <c r="I47">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3425,22 +3425,22 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>16.48</v>
+        <v>14.77</v>
       </c>
       <c r="E48">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F48">
-        <v>83.52</v>
+        <v>84.66</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="I48">
         <v>7.4</v>
@@ -3454,25 +3454,25 @@
         <v>123</v>
       </c>
       <c r="C49">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>55.28</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F49">
-        <v>44.72</v>
+        <v>78.05</v>
       </c>
       <c r="G49">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="H49">
-        <v>55.28</v>
+        <v>21.95</v>
       </c>
       <c r="I49">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3512,25 +3512,25 @@
         <v>215</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F51">
-        <v>84.19</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="G51">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>14.88</v>
+        <v>14.42</v>
       </c>
       <c r="I51">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3586,16 +3586,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>22.55</v>
+        <v>19.61</v>
       </c>
       <c r="E2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>77.45</v>
+        <v>80.39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3615,16 +3615,16 @@
         <v>145</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>9.66</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F3">
-        <v>90.34</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3650,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="F4">
-        <v>71.95</v>
+        <v>99.39</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>28.05</v>
+        <v>0.61</v>
       </c>
       <c r="I4">
         <v>7.9</v>
@@ -3673,16 +3673,16 @@
         <v>80</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>73.75</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F6">
-        <v>79.66</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>20.34</v>
+        <v>12.71</v>
       </c>
       <c r="I6">
         <v>7</v>
@@ -3731,25 +3731,25 @@
         <v>118</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>30.51</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F7">
-        <v>69.48999999999999</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.71</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3766,16 +3766,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="F8">
-        <v>66.81</v>
+        <v>76.98999999999999</v>
       </c>
       <c r="G8">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="H8">
-        <v>33.19</v>
+        <v>23.01</v>
       </c>
       <c r="I8">
         <v>6.9</v>
@@ -3795,16 +3795,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F9">
-        <v>74.23</v>
+        <v>79.38</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>25.77</v>
+        <v>20.62</v>
       </c>
       <c r="I9">
         <v>7.6</v>
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F10">
-        <v>60.93</v>
+        <v>74.17</v>
       </c>
       <c r="G10">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>39.07</v>
+        <v>25.83</v>
       </c>
       <c r="I10">
         <v>6.8</v>
@@ -3847,16 +3847,16 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>25.64</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>74.36</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3876,25 +3876,25 @@
         <v>71</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>12.68</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F12">
-        <v>87.31999999999999</v>
+        <v>95.77</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="I12">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3911,16 +3911,16 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F13">
-        <v>52.46</v>
+        <v>80.33</v>
       </c>
       <c r="G13">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H13">
-        <v>47.54</v>
+        <v>19.67</v>
       </c>
       <c r="I13">
         <v>6.4</v>
@@ -3934,22 +3934,22 @@
         <v>175</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="F14">
-        <v>72.56999999999999</v>
+        <v>96.56999999999999</v>
       </c>
       <c r="G14">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>25.14</v>
+        <v>3.43</v>
       </c>
       <c r="I14">
         <v>6.8</v>
@@ -3969,16 +3969,16 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>56.76</v>
+        <v>100</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>43.24</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>6.9</v>
@@ -3998,16 +3998,16 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>95.45</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="I16">
         <v>8.300000000000001</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F17">
-        <v>70.18000000000001</v>
+        <v>98.25</v>
       </c>
       <c r="G17">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>29.82</v>
+        <v>1.75</v>
       </c>
       <c r="I17">
         <v>7.3</v>
@@ -4085,16 +4085,16 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F19">
-        <v>79.73</v>
+        <v>93.23999999999999</v>
       </c>
       <c r="G19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>20.27</v>
+        <v>6.76</v>
       </c>
       <c r="I19">
         <v>7.2</v>
@@ -4108,25 +4108,25 @@
         <v>251</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>7.57</v>
+        <v>4.38</v>
       </c>
       <c r="E20">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F20">
-        <v>83.67</v>
+        <v>81.67</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>8.76</v>
+        <v>13.94</v>
       </c>
       <c r="I20">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4137,16 +4137,16 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>15.02</v>
+        <v>11.74</v>
       </c>
       <c r="E21">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F21">
-        <v>84.51000000000001</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4155,7 +4155,7 @@
         <v>0.47</v>
       </c>
       <c r="I21">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4166,25 +4166,25 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>10.29</v>
+        <v>6.37</v>
       </c>
       <c r="E22">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="F22">
-        <v>71.56999999999999</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H22">
-        <v>18.14</v>
+        <v>5.39</v>
       </c>
       <c r="I22">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4195,16 +4195,16 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>38.94</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="F23">
-        <v>61.06</v>
+        <v>100</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4224,25 +4224,25 @@
         <v>78</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F24">
-        <v>79.48999999999999</v>
+        <v>94.87</v>
       </c>
       <c r="G24">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>16.67</v>
+        <v>5.13</v>
       </c>
       <c r="I24">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4259,16 +4259,16 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>98.89</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="I25">
         <v>8.1</v>
@@ -4288,16 +4288,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F26">
-        <v>87.78</v>
+        <v>98.89</v>
       </c>
       <c r="G26">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>12.22</v>
+        <v>1.11</v>
       </c>
       <c r="I26">
         <v>8</v>
@@ -4311,25 +4311,25 @@
         <v>116</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>27.59</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="F27">
-        <v>72.41</v>
+        <v>99.14</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="I27">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4375,16 +4375,16 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F29">
-        <v>76.7</v>
+        <v>84.47</v>
       </c>
       <c r="G29">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>23.3</v>
+        <v>15.53</v>
       </c>
       <c r="I29">
         <v>8</v>
@@ -4398,25 +4398,25 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>24.29</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F30">
-        <v>70.48</v>
+        <v>76.67</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="H30">
-        <v>5.24</v>
+        <v>23.33</v>
       </c>
       <c r="I30">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4427,25 +4427,25 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>25.69</v>
+        <v>22.22</v>
       </c>
       <c r="E31">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F31">
-        <v>74.31</v>
+        <v>77.08</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I31">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4462,16 +4462,16 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="F32">
-        <v>64.56999999999999</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="G32">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>35.43</v>
+        <v>1.57</v>
       </c>
       <c r="I32">
         <v>6.9</v>
@@ -4485,25 +4485,25 @@
         <v>177</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>10.73</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="F33">
-        <v>77.97</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H33">
-        <v>11.3</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I33">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4520,16 +4520,16 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F34">
-        <v>85.70999999999999</v>
+        <v>98.41</v>
       </c>
       <c r="G34">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>14.29</v>
+        <v>1.59</v>
       </c>
       <c r="I34">
         <v>7.8</v>
@@ -4543,25 +4543,25 @@
         <v>149</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D35">
-        <v>53.69</v>
+        <v>34.9</v>
       </c>
       <c r="E35">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F35">
-        <v>46.31</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="I35">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4578,16 +4578,16 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F36">
-        <v>85.70999999999999</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="G36">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>14.29</v>
+        <v>0.68</v>
       </c>
       <c r="I36">
         <v>7.1</v>
@@ -4607,16 +4607,16 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F37">
-        <v>90.11</v>
+        <v>100</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>9.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>8</v>
@@ -4630,25 +4630,25 @@
         <v>98</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>21.43</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F38">
-        <v>75.51000000000001</v>
+        <v>95.92</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>3.06</v>
+        <v>4.08</v>
       </c>
       <c r="I38">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4665,16 +4665,16 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F39">
-        <v>48.18</v>
+        <v>71.53</v>
       </c>
       <c r="G39">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H39">
-        <v>51.82</v>
+        <v>28.47</v>
       </c>
       <c r="I39">
         <v>6.1</v>
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F41">
-        <v>66.95999999999999</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="G41">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H41">
-        <v>33.04</v>
+        <v>13.04</v>
       </c>
       <c r="I41">
         <v>6.8</v>
@@ -4746,25 +4746,25 @@
         <v>23</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F42">
-        <v>69.56999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>26.09</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I42">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4810,16 +4810,16 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F44">
-        <v>76.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="G44">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>23.96</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>7.8</v>
@@ -4839,16 +4839,16 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>99.13</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="I45">
         <v>9</v>
@@ -4897,16 +4897,16 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="F47">
-        <v>71.06999999999999</v>
+        <v>90.36</v>
       </c>
       <c r="G47">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H47">
-        <v>28.93</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I47">
         <v>7</v>
@@ -4920,22 +4920,22 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>16.48</v>
+        <v>14.77</v>
       </c>
       <c r="E48">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F48">
-        <v>83.52</v>
+        <v>84.66</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="I48">
         <v>7.3</v>
@@ -4955,16 +4955,16 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="F49">
-        <v>61.79</v>
+        <v>88.62</v>
       </c>
       <c r="G49">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H49">
-        <v>38.21</v>
+        <v>11.38</v>
       </c>
       <c r="I49">
         <v>6.9</v>
@@ -4984,16 +4984,16 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="F50">
-        <v>77.65000000000001</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="G50">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H50">
-        <v>22.35</v>
+        <v>6.15</v>
       </c>
       <c r="I50">
         <v>8</v>
@@ -5013,16 +5013,16 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F51">
-        <v>85.12</v>
+        <v>89.3</v>
       </c>
       <c r="G51">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H51">
-        <v>14.88</v>
+        <v>10.7</v>
       </c>
       <c r="I51">
         <v>8.199999999999999</v>

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -596,16 +596,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>19.61</v>
+        <v>7.84</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F2">
-        <v>80.39</v>
+        <v>92.16</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1176,16 +1176,16 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>6.37</v>
+        <v>4.9</v>
       </c>
       <c r="E22">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F22">
-        <v>69.61</v>
+        <v>71.08</v>
       </c>
       <c r="G22">
         <v>49</v>
@@ -1437,16 +1437,16 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>22.22</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F31">
-        <v>77.08</v>
+        <v>99.31</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="I31">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2091,16 +2091,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>19.61</v>
+        <v>7.84</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F2">
-        <v>80.39</v>
+        <v>92.16</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2207,22 +2207,22 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F6">
-        <v>77.97</v>
+        <v>78.81</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>22.03</v>
+        <v>21.19</v>
       </c>
       <c r="I6">
         <v>7.8</v>
@@ -2584,10 +2584,10 @@
         <v>74</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>62</v>
@@ -2602,7 +2602,7 @@
         <v>16.22</v>
       </c>
       <c r="I19">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2671,25 +2671,25 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>12.75</v>
+        <v>7.35</v>
       </c>
       <c r="E22">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F22">
-        <v>80.39</v>
+        <v>84.8</v>
       </c>
       <c r="G22">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>13.24</v>
+        <v>10.29</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2932,16 +2932,16 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>22.22</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F31">
-        <v>77.08</v>
+        <v>99.31</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="I31">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3586,16 +3586,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>19.61</v>
+        <v>7.84</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F2">
-        <v>80.39</v>
+        <v>92.16</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3662,7 +3662,7 @@
         <v>0.61</v>
       </c>
       <c r="I4">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3720,7 +3720,7 @@
         <v>12.71</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3749,7 +3749,7 @@
         <v>12.71</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3778,7 +3778,7 @@
         <v>23.01</v>
       </c>
       <c r="I8">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3807,7 +3807,7 @@
         <v>20.62</v>
       </c>
       <c r="I9">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3836,7 +3836,7 @@
         <v>25.83</v>
       </c>
       <c r="I10">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3894,7 +3894,7 @@
         <v>4.23</v>
       </c>
       <c r="I12">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3923,7 +3923,7 @@
         <v>19.67</v>
       </c>
       <c r="I13">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3952,7 +3952,7 @@
         <v>3.43</v>
       </c>
       <c r="I14">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4010,7 +4010,7 @@
         <v>4.55</v>
       </c>
       <c r="I16">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4039,7 +4039,7 @@
         <v>1.75</v>
       </c>
       <c r="I17">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4085,19 +4085,19 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19">
-        <v>93.23999999999999</v>
+        <v>94.59</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>6.76</v>
+        <v>5.41</v>
       </c>
       <c r="I19">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4114,19 +4114,19 @@
         <v>4.38</v>
       </c>
       <c r="E20">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F20">
-        <v>81.67</v>
+        <v>84.06</v>
       </c>
       <c r="G20">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H20">
-        <v>13.94</v>
+        <v>11.55</v>
       </c>
       <c r="I20">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4155,7 +4155,7 @@
         <v>0.47</v>
       </c>
       <c r="I21">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4166,25 +4166,25 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>6.37</v>
+        <v>4.9</v>
       </c>
       <c r="E22">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F22">
-        <v>88.23999999999999</v>
+        <v>91.67</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H22">
-        <v>5.39</v>
+        <v>3.43</v>
       </c>
       <c r="I22">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4242,7 +4242,7 @@
         <v>5.13</v>
       </c>
       <c r="I24">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4271,7 +4271,7 @@
         <v>1.11</v>
       </c>
       <c r="I25">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4300,7 +4300,7 @@
         <v>1.11</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4329,7 +4329,7 @@
         <v>0.86</v>
       </c>
       <c r="I27">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4387,7 +4387,7 @@
         <v>15.53</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4416,7 +4416,7 @@
         <v>23.33</v>
       </c>
       <c r="I30">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4427,16 +4427,16 @@
         <v>144</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>22.22</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F31">
-        <v>77.08</v>
+        <v>99.31</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -4445,7 +4445,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="I31">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4474,7 +4474,7 @@
         <v>1.57</v>
       </c>
       <c r="I32">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4503,7 +4503,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="I33">
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4532,7 +4532,7 @@
         <v>1.59</v>
       </c>
       <c r="I34">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4590,7 +4590,7 @@
         <v>0.68</v>
       </c>
       <c r="I36">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4648,7 +4648,7 @@
         <v>4.08</v>
       </c>
       <c r="I38">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4677,7 +4677,7 @@
         <v>28.47</v>
       </c>
       <c r="I39">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4735,7 +4735,7 @@
         <v>13.04</v>
       </c>
       <c r="I41">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4764,7 +4764,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="I42">
-        <v>6.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4851,7 +4851,7 @@
         <v>0.87</v>
       </c>
       <c r="I45">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4909,7 +4909,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="I47">
-        <v>7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4938,7 +4938,7 @@
         <v>0.57</v>
       </c>
       <c r="I48">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4967,7 +4967,7 @@
         <v>11.38</v>
       </c>
       <c r="I49">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4996,7 +4996,7 @@
         <v>6.15</v>
       </c>
       <c r="I50">
-        <v>8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5025,7 +5025,7 @@
         <v>10.7</v>
       </c>
       <c r="I51">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -596,16 +596,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>7.84</v>
+        <v>2.94</v>
       </c>
       <c r="E2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F2">
-        <v>92.16</v>
+        <v>97.06</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1060,25 +1060,25 @@
         <v>247</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>19.03</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F18">
-        <v>80.97</v>
+        <v>83</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I18">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1118,22 +1118,22 @@
         <v>251</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>4.38</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F20">
-        <v>84.45999999999999</v>
+        <v>86.45</v>
       </c>
       <c r="G20">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>11.16</v>
+        <v>13.55</v>
       </c>
       <c r="I20">
         <v>6.8</v>
@@ -1147,22 +1147,22 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>11.74</v>
+        <v>10.33</v>
       </c>
       <c r="E21">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F21">
-        <v>86.38</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>1.88</v>
+        <v>2.35</v>
       </c>
       <c r="I21">
         <v>7.1</v>
@@ -1176,16 +1176,16 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F22">
-        <v>71.08</v>
+        <v>75.98</v>
       </c>
       <c r="G22">
         <v>49</v>
@@ -1872,16 +1872,16 @@
         <v>111</v>
       </c>
       <c r="C46">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>36.94</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F46">
-        <v>63.06</v>
+        <v>100</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1930,25 +1930,25 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>14.77</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="F48">
-        <v>84.66</v>
+        <v>97.16</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>0.57</v>
+        <v>2.84</v>
       </c>
       <c r="I48">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2091,16 +2091,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>7.84</v>
+        <v>2.94</v>
       </c>
       <c r="E2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F2">
-        <v>92.16</v>
+        <v>97.06</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2555,25 +2555,25 @@
         <v>247</v>
       </c>
       <c r="C18">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>27.94</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="F18">
-        <v>72.06</v>
+        <v>80.97</v>
       </c>
       <c r="G18">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H18">
-        <v>8.91</v>
+        <v>19.03</v>
       </c>
       <c r="I18">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2613,25 +2613,25 @@
         <v>251</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F20">
-        <v>75.7</v>
+        <v>80.48</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20">
-        <v>19.92</v>
+        <v>19.52</v>
       </c>
       <c r="I20">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2642,22 +2642,22 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>26.29</v>
+        <v>22.54</v>
       </c>
       <c r="E21">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F21">
-        <v>72.77</v>
+        <v>76.06</v>
       </c>
       <c r="G21">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>15.49</v>
+        <v>13.62</v>
       </c>
       <c r="I21">
         <v>7.6</v>
@@ -2671,25 +2671,25 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>7.35</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="F22">
-        <v>84.8</v>
+        <v>91.67</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>10.29</v>
+        <v>8.33</v>
       </c>
       <c r="I22">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2729,10 +2729,10 @@
         <v>78</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>63</v>
@@ -3367,25 +3367,25 @@
         <v>111</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>45.05</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="F46">
-        <v>54.95</v>
+        <v>100</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>8.109999999999999</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3425,25 +3425,25 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>14.77</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="F48">
-        <v>84.66</v>
+        <v>97.16</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>0.57</v>
+        <v>2.84</v>
       </c>
       <c r="I48">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3586,16 +3586,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>7.84</v>
+        <v>2.94</v>
       </c>
       <c r="E2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F2">
-        <v>92.16</v>
+        <v>97.06</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3824,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F10">
-        <v>74.17</v>
+        <v>86.75</v>
       </c>
       <c r="G10">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>25.83</v>
+        <v>13.25</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4050,10 +4050,10 @@
         <v>247</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>19.03</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>200</v>
@@ -4062,13 +4062,13 @@
         <v>80.97</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>19.03</v>
       </c>
       <c r="I18">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4108,25 +4108,25 @@
         <v>251</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>4.38</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F20">
-        <v>84.06</v>
+        <v>85.26000000000001</v>
       </c>
       <c r="G20">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>11.55</v>
+        <v>14.74</v>
       </c>
       <c r="I20">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4137,16 +4137,16 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>11.74</v>
+        <v>10.33</v>
       </c>
       <c r="E21">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F21">
-        <v>87.79000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4166,22 +4166,22 @@
         <v>204</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F22">
-        <v>91.67</v>
+        <v>99.02</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>3.43</v>
+        <v>0.98</v>
       </c>
       <c r="I22">
         <v>7.7</v>
@@ -4230,16 +4230,16 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F24">
-        <v>94.87</v>
+        <v>97.44</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>5.13</v>
+        <v>2.56</v>
       </c>
       <c r="I24">
         <v>6.8</v>
@@ -4694,19 +4694,19 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="F40">
-        <v>81.86</v>
+        <v>100</v>
       </c>
       <c r="G40">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>18.14</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4862,16 +4862,16 @@
         <v>111</v>
       </c>
       <c r="C46">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>36.94</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F46">
-        <v>63.06</v>
+        <v>100</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4897,16 +4897,16 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F47">
-        <v>90.36</v>
+        <v>93.91</v>
       </c>
       <c r="G47">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H47">
-        <v>9.640000000000001</v>
+        <v>6.09</v>
       </c>
       <c r="I47">
         <v>7.4</v>
@@ -4920,25 +4920,25 @@
         <v>176</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>14.77</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="F48">
-        <v>84.66</v>
+        <v>97.16</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>0.57</v>
+        <v>2.84</v>
       </c>
       <c r="I48">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="49" spans="1:9">

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -596,16 +596,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F2">
-        <v>97.06</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1147,16 +1147,16 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>10.33</v>
+        <v>7.98</v>
       </c>
       <c r="E21">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F21">
-        <v>87.31999999999999</v>
+        <v>89.67</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2091,16 +2091,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F2">
-        <v>97.06</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2642,25 +2642,25 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>22.54</v>
+        <v>18.78</v>
       </c>
       <c r="E21">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F21">
-        <v>76.06</v>
+        <v>79.81</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H21">
-        <v>13.62</v>
+        <v>12.21</v>
       </c>
       <c r="I21">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2903,10 +2903,10 @@
         <v>210</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>162</v>
@@ -3222,10 +3222,10 @@
         <v>115</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>12.17</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>69</v>
@@ -3240,7 +3240,7 @@
         <v>40</v>
       </c>
       <c r="I41">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3586,16 +3586,16 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F2">
-        <v>97.06</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3737,16 +3737,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F7">
-        <v>87.29000000000001</v>
+        <v>88.14</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>12.71</v>
+        <v>11.86</v>
       </c>
       <c r="I7">
         <v>7.7</v>
@@ -3882,19 +3882,19 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12">
-        <v>95.77</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>4.23</v>
+        <v>2.82</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3940,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F14">
-        <v>96.56999999999999</v>
+        <v>99.43000000000001</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>3.43</v>
+        <v>0.57</v>
       </c>
       <c r="I14">
         <v>7.1</v>
@@ -4137,16 +4137,16 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>10.33</v>
+        <v>7.98</v>
       </c>
       <c r="E21">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F21">
-        <v>89.2</v>
+        <v>91.55</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4155,7 +4155,7 @@
         <v>0.47</v>
       </c>
       <c r="I21">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4346,16 +4346,16 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>95.45</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="I28">
         <v>7.1</v>
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F41">
-        <v>86.95999999999999</v>
+        <v>83.48</v>
       </c>
       <c r="G41">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H41">
-        <v>13.04</v>
+        <v>16.52</v>
       </c>
       <c r="I41">
         <v>7.1</v>

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -1147,16 +1147,16 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>7.98</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F21">
-        <v>89.67</v>
+        <v>97.65000000000001</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -1165,7 +1165,7 @@
         <v>2.35</v>
       </c>
       <c r="I21">
-        <v>7.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1553,10 +1553,10 @@
         <v>149</v>
       </c>
       <c r="C35">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>96</v>
@@ -1565,13 +1565,13 @@
         <v>64.43000000000001</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="H35">
-        <v>0.67</v>
+        <v>35.57</v>
       </c>
       <c r="I35">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2642,25 +2642,25 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>18.78</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="F21">
-        <v>79.81</v>
+        <v>98.12</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>12.21</v>
+        <v>1.88</v>
       </c>
       <c r="I21">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3048,25 +3048,25 @@
         <v>149</v>
       </c>
       <c r="C35">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>43.62</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F35">
-        <v>55.7</v>
+        <v>61.07</v>
       </c>
       <c r="G35">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H35">
-        <v>9.4</v>
+        <v>38.93</v>
       </c>
       <c r="I35">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4137,25 +4137,25 @@
         <v>213</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>7.98</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F21">
-        <v>91.55</v>
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4543,25 +4543,25 @@
         <v>149</v>
       </c>
       <c r="C35">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35">
-        <v>64.43000000000001</v>
+        <v>63.09</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="H35">
-        <v>0.67</v>
+        <v>36.91</v>
       </c>
       <c r="I35">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="36" spans="1:9">

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -770,22 +770,25 @@
         <v>167</v>
       </c>
       <c r="C8">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>48.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
+      </c>
+      <c r="I8">
+        <v>7.9</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -796,16 +799,16 @@
         <v>97</v>
       </c>
       <c r="C9">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>91.75</v>
+        <v>47.42</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F9">
-        <v>8.25</v>
+        <v>52.58</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -814,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -825,22 +828,25 @@
         <v>172</v>
       </c>
       <c r="C10">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>29.65</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
+      </c>
+      <c r="I10">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -851,16 +857,16 @@
         <v>102</v>
       </c>
       <c r="C11">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>52.94</v>
+        <v>28.43</v>
       </c>
       <c r="E11">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F11">
-        <v>47.06</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -869,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -909,22 +915,25 @@
         <v>159</v>
       </c>
       <c r="C13">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>26.42</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>69.81</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.77</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -935,22 +944,25 @@
         <v>189</v>
       </c>
       <c r="C14">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>12.17</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>77.78</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.05</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -961,22 +973,25 @@
         <v>96</v>
       </c>
       <c r="C15">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>71.88</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>28.13</v>
+      </c>
+      <c r="I15">
+        <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -987,16 +1002,16 @@
         <v>178</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>30.9</v>
+        <v>19.66</v>
       </c>
       <c r="E16">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F16">
-        <v>69.09999999999999</v>
+        <v>80.34</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1005,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1045,16 +1060,16 @@
         <v>147</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>20.41</v>
+        <v>19.73</v>
       </c>
       <c r="E18">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18">
-        <v>79.59</v>
+        <v>80.27</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1074,25 +1089,25 @@
         <v>228</v>
       </c>
       <c r="C19">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>86.40000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="F19">
-        <v>13.16</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>0.44</v>
+        <v>18.86</v>
       </c>
       <c r="I19">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1129,22 +1144,25 @@
         <v>120</v>
       </c>
       <c r="C21">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>35.83</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>64.17</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
+      </c>
+      <c r="I21">
+        <v>8.5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1155,22 +1173,25 @@
         <v>212</v>
       </c>
       <c r="C22">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>22.64</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>77.36</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
+      </c>
+      <c r="I22">
+        <v>7.4</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1181,22 +1202,25 @@
         <v>195</v>
       </c>
       <c r="C23">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>28.72</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>71.28</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
+      </c>
+      <c r="I23">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1236,22 +1260,25 @@
         <v>104</v>
       </c>
       <c r="C25">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>64.42</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>35.58</v>
+      </c>
+      <c r="I25">
+        <v>6.4</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1262,22 +1289,25 @@
         <v>105</v>
       </c>
       <c r="C26">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>58.1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>41.9</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
+      </c>
+      <c r="I26">
+        <v>8.6</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1317,22 +1347,25 @@
         <v>136</v>
       </c>
       <c r="C28">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>25.74</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1372,22 +1405,25 @@
         <v>24</v>
       </c>
       <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>24</v>
       </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
+      </c>
+      <c r="I30">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1398,16 +1434,16 @@
         <v>108</v>
       </c>
       <c r="C31">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>75</v>
+        <v>29.63</v>
       </c>
       <c r="E31">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F31">
-        <v>25</v>
+        <v>70.37</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1416,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1427,22 +1463,25 @@
         <v>247</v>
       </c>
       <c r="C32">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>41.3</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>58.7</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
+      </c>
+      <c r="I32">
+        <v>7.9</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1511,22 +1550,25 @@
         <v>162</v>
       </c>
       <c r="C35">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>88.27</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>11.73</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
+      </c>
+      <c r="I35">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1537,25 +1579,25 @@
         <v>142</v>
       </c>
       <c r="C36">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>47.18</v>
+        <v>27.46</v>
       </c>
       <c r="E36">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F36">
-        <v>52.82</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="I36">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1566,22 +1608,25 @@
         <v>65</v>
       </c>
       <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>65</v>
       </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
+      </c>
+      <c r="I37">
+        <v>8.1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1621,22 +1666,25 @@
         <v>141</v>
       </c>
       <c r="C39">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>68.09</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>31.91</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
+      </c>
+      <c r="I39">
+        <v>7.9</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1647,22 +1695,25 @@
         <v>204</v>
       </c>
       <c r="C40">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>0.98</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>81.86</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>17.16</v>
+      </c>
+      <c r="I40">
+        <v>7.1</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1673,22 +1724,25 @@
         <v>72</v>
       </c>
       <c r="C41">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>100</v>
+        <v>31.94</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>68.06</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
+      </c>
+      <c r="I41">
+        <v>7.5</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1728,22 +1782,25 @@
         <v>33</v>
       </c>
       <c r="C43">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>42.42</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>57.58</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
+      </c>
+      <c r="I43">
+        <v>7.4</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1838,22 +1895,22 @@
         <v>156</v>
       </c>
       <c r="C47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>62.82</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="F47">
-        <v>26.92</v>
+        <v>69.23</v>
       </c>
       <c r="G47">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="H47">
-        <v>10.26</v>
+        <v>30.77</v>
       </c>
       <c r="I47">
         <v>7.1</v>
@@ -1867,16 +1924,16 @@
         <v>144</v>
       </c>
       <c r="C48">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>81.25</v>
+        <v>30.56</v>
       </c>
       <c r="E48">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F48">
-        <v>18.75</v>
+        <v>69.44</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1885,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1896,22 +1953,25 @@
         <v>124</v>
       </c>
       <c r="C49">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>47.58</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>52.42</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
+      </c>
+      <c r="I49">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2193,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2219,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="H9">
-        <v>8.25</v>
+        <v>52.58</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2245,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>70.34999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2271,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H11">
-        <v>47.06</v>
+        <v>71.56999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2323,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>73.58</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2349,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>87.83</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2375,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2401,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H16">
-        <v>69.09999999999999</v>
+        <v>80.34</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2453,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18">
-        <v>79.59</v>
+        <v>80.27</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2479,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="H19">
-        <v>13.6</v>
+        <v>90.79000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2531,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>64.17</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2557,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>77.36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2583,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>71.28</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2635,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2661,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2713,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>74.26000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2765,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2791,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2817,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2895,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2921,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="H36">
-        <v>52.82</v>
+        <v>72.54000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2947,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2999,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>31.91</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3025,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>99.02</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3051,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3103,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>57.58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3207,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="H47">
-        <v>37.18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3233,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="H48">
-        <v>18.75</v>
+        <v>69.44</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3259,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>52.42</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3544,22 +3604,25 @@
         <v>167</v>
       </c>
       <c r="C8">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>48.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
+      </c>
+      <c r="I8">
+        <v>7.9</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3570,16 +3633,16 @@
         <v>97</v>
       </c>
       <c r="C9">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>91.75</v>
+        <v>47.42</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F9">
-        <v>8.25</v>
+        <v>52.58</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3588,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3599,22 +3662,25 @@
         <v>172</v>
       </c>
       <c r="C10">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>29.65</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
+      </c>
+      <c r="I10">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3625,16 +3691,16 @@
         <v>102</v>
       </c>
       <c r="C11">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>52.94</v>
+        <v>28.43</v>
       </c>
       <c r="E11">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F11">
-        <v>47.06</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3643,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3683,22 +3749,25 @@
         <v>159</v>
       </c>
       <c r="C13">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>26.42</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>69.81</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.77</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3709,22 +3778,25 @@
         <v>189</v>
       </c>
       <c r="C14">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>12.17</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>77.78</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.05</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3735,22 +3807,25 @@
         <v>96</v>
       </c>
       <c r="C15">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>71.88</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>28.13</v>
+      </c>
+      <c r="I15">
+        <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3761,16 +3836,16 @@
         <v>178</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>30.9</v>
+        <v>19.66</v>
       </c>
       <c r="E16">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F16">
-        <v>69.09999999999999</v>
+        <v>80.34</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3779,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3819,16 +3894,16 @@
         <v>147</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>20.41</v>
+        <v>19.73</v>
       </c>
       <c r="E18">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18">
-        <v>79.59</v>
+        <v>80.27</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3848,25 +3923,25 @@
         <v>228</v>
       </c>
       <c r="C19">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>86.40000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="F19">
-        <v>13.16</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>0.44</v>
+        <v>18.86</v>
       </c>
       <c r="I19">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3903,22 +3978,25 @@
         <v>120</v>
       </c>
       <c r="C21">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>35.83</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>64.17</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
+      </c>
+      <c r="I21">
+        <v>8.5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3929,22 +4007,25 @@
         <v>212</v>
       </c>
       <c r="C22">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>22.64</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>77.36</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
+      </c>
+      <c r="I22">
+        <v>7.4</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3955,22 +4036,25 @@
         <v>195</v>
       </c>
       <c r="C23">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>28.72</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>71.28</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
+      </c>
+      <c r="I23">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4010,22 +4094,25 @@
         <v>104</v>
       </c>
       <c r="C25">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>64.42</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>35.58</v>
+      </c>
+      <c r="I25">
+        <v>6.4</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4036,22 +4123,25 @@
         <v>105</v>
       </c>
       <c r="C26">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>58.1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>41.9</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
+      </c>
+      <c r="I26">
+        <v>8.6</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4091,22 +4181,25 @@
         <v>136</v>
       </c>
       <c r="C28">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>25.74</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4146,22 +4239,25 @@
         <v>24</v>
       </c>
       <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>24</v>
       </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
+      </c>
+      <c r="I30">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4172,16 +4268,16 @@
         <v>108</v>
       </c>
       <c r="C31">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>75</v>
+        <v>29.63</v>
       </c>
       <c r="E31">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F31">
-        <v>25</v>
+        <v>70.37</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4190,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4201,22 +4297,25 @@
         <v>247</v>
       </c>
       <c r="C32">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>41.3</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>58.7</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
+      </c>
+      <c r="I32">
+        <v>7.9</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4285,22 +4384,25 @@
         <v>162</v>
       </c>
       <c r="C35">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>88.27</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>11.73</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
+      </c>
+      <c r="I35">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4311,25 +4413,25 @@
         <v>142</v>
       </c>
       <c r="C36">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>47.18</v>
+        <v>27.46</v>
       </c>
       <c r="E36">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F36">
-        <v>52.82</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="I36">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4340,22 +4442,25 @@
         <v>65</v>
       </c>
       <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>65</v>
       </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
+      </c>
+      <c r="I37">
+        <v>8.1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4395,22 +4500,25 @@
         <v>141</v>
       </c>
       <c r="C39">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>68.09</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>31.91</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
+      </c>
+      <c r="I39">
+        <v>7.9</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4421,22 +4529,25 @@
         <v>204</v>
       </c>
       <c r="C40">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>0.98</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>81.86</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>17.16</v>
+      </c>
+      <c r="I40">
+        <v>7.1</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4447,22 +4558,25 @@
         <v>72</v>
       </c>
       <c r="C41">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>100</v>
+        <v>31.94</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>68.06</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
+      </c>
+      <c r="I41">
+        <v>7.5</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4502,22 +4616,25 @@
         <v>33</v>
       </c>
       <c r="C43">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>42.42</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>57.58</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
+      </c>
+      <c r="I43">
+        <v>7.4</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4612,22 +4729,22 @@
         <v>156</v>
       </c>
       <c r="C47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>62.82</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="F47">
-        <v>26.92</v>
+        <v>69.23</v>
       </c>
       <c r="G47">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="H47">
-        <v>10.26</v>
+        <v>30.77</v>
       </c>
       <c r="I47">
         <v>7.1</v>
@@ -4641,16 +4758,16 @@
         <v>144</v>
       </c>
       <c r="C48">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>81.25</v>
+        <v>30.56</v>
       </c>
       <c r="E48">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F48">
-        <v>18.75</v>
+        <v>69.44</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4659,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4670,22 +4787,25 @@
         <v>124</v>
       </c>
       <c r="C49">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>47.58</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>52.42</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
+      </c>
+      <c r="I49">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9">

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -593,19 +593,19 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>22.05</v>
+        <v>23.08</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>77.95</v>
+        <v>76.92</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -625,16 +625,16 @@
         <v>172</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>27.91</v>
+        <v>27.33</v>
       </c>
       <c r="E3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F3">
-        <v>72.09</v>
+        <v>72.67</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -651,19 +651,19 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>37.19</v>
+        <v>37.93</v>
       </c>
       <c r="E4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>62.81</v>
+        <v>62.07</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>29.93</v>
+        <v>31.79</v>
       </c>
       <c r="E5">
         <v>103</v>
       </c>
       <c r="F5">
-        <v>70.06999999999999</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E6">
         <v>56</v>
       </c>
       <c r="F6">
-        <v>76.70999999999999</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="G6">
         <v>17</v>
       </c>
       <c r="H6">
-        <v>23.29</v>
+        <v>22.97</v>
       </c>
       <c r="I6">
         <v>7.5</v>
@@ -767,28 +767,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C8">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>51.5</v>
+        <v>62.13</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>37.87</v>
       </c>
       <c r="I8">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -796,19 +796,19 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>47.42</v>
+        <v>48.48</v>
       </c>
       <c r="E9">
         <v>51</v>
       </c>
       <c r="F9">
-        <v>52.58</v>
+        <v>51.52</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>29.65</v>
+        <v>31.25</v>
       </c>
       <c r="E10">
         <v>121</v>
       </c>
       <c r="F10">
-        <v>70.34999999999999</v>
+        <v>68.75</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -857,16 +857,16 @@
         <v>102</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>28.43</v>
+        <v>27.45</v>
       </c>
       <c r="E11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11">
-        <v>71.56999999999999</v>
+        <v>72.55</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -883,19 +883,19 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>39.22</v>
       </c>
       <c r="E12">
         <v>31</v>
       </c>
       <c r="F12">
-        <v>62</v>
+        <v>60.78</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -999,19 +999,19 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>19.66</v>
+        <v>19.21</v>
       </c>
       <c r="E16">
         <v>143</v>
       </c>
       <c r="F16">
-        <v>80.34</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>26.01</v>
+        <v>27.68</v>
       </c>
       <c r="E17">
         <v>128</v>
       </c>
       <c r="F17">
-        <v>73.98999999999999</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>19.73</v>
+        <v>19.18</v>
       </c>
       <c r="E18">
         <v>118</v>
       </c>
       <c r="F18">
-        <v>80.27</v>
+        <v>80.81999999999999</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1118,22 +1118,25 @@
         <v>186</v>
       </c>
       <c r="C20">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>27.96</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1170,19 +1173,19 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>22.64</v>
+        <v>20.85</v>
       </c>
       <c r="E22">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F22">
-        <v>77.36</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1202,16 +1205,16 @@
         <v>195</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>28.72</v>
+        <v>26.67</v>
       </c>
       <c r="E23">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F23">
-        <v>71.28</v>
+        <v>73.33</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1228,25 +1231,25 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>13.58</v>
+        <v>14.63</v>
       </c>
       <c r="E24">
         <v>66</v>
       </c>
       <c r="F24">
-        <v>81.48</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24">
-        <v>4.94</v>
+        <v>4.88</v>
       </c>
       <c r="I24">
         <v>8.6</v>
@@ -1286,19 +1289,19 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D26">
-        <v>58.1</v>
+        <v>48.15</v>
       </c>
       <c r="E26">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F26">
-        <v>41.9</v>
+        <v>51.85</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1315,7 +1318,7 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1324,16 +1327,16 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27">
-        <v>84.29000000000001</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="G27">
         <v>11</v>
       </c>
       <c r="H27">
-        <v>15.71</v>
+        <v>15.49</v>
       </c>
       <c r="I27">
         <v>7.8</v>
@@ -1344,19 +1347,19 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>25.74</v>
+        <v>26.28</v>
       </c>
       <c r="E28">
         <v>101</v>
       </c>
       <c r="F28">
-        <v>74.26000000000001</v>
+        <v>73.72</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1373,19 +1376,19 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>22.73</v>
+        <v>22.22</v>
       </c>
       <c r="E29">
         <v>119</v>
       </c>
       <c r="F29">
-        <v>77.27</v>
+        <v>77.78</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1434,16 +1437,16 @@
         <v>108</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>29.63</v>
+        <v>26.85</v>
       </c>
       <c r="E31">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F31">
-        <v>70.37</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1463,16 +1466,16 @@
         <v>247</v>
       </c>
       <c r="C32">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D32">
-        <v>41.3</v>
+        <v>36.84</v>
       </c>
       <c r="E32">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F32">
-        <v>58.7</v>
+        <v>63.16</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1518,28 +1521,28 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C34">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>18.55</v>
+        <v>11.71</v>
       </c>
       <c r="E34">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F34">
-        <v>81</v>
+        <v>85.14</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>0.45</v>
+        <v>3.15</v>
       </c>
       <c r="I34">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1550,25 +1553,25 @@
         <v>162</v>
       </c>
       <c r="C35">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>88.27</v>
+        <v>25.31</v>
       </c>
       <c r="E35">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F35">
-        <v>11.73</v>
+        <v>46.3</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="I35">
-        <v>9.300000000000001</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1576,25 +1579,25 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C36">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>27.46</v>
+        <v>26.39</v>
       </c>
       <c r="E36">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F36">
-        <v>69.01000000000001</v>
+        <v>70.14</v>
       </c>
       <c r="G36">
         <v>5</v>
       </c>
       <c r="H36">
-        <v>3.52</v>
+        <v>3.47</v>
       </c>
       <c r="I36">
         <v>7.6</v>
@@ -1634,19 +1637,19 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>23.61</v>
+        <v>24.66</v>
       </c>
       <c r="E38">
         <v>55</v>
       </c>
       <c r="F38">
-        <v>76.39</v>
+        <v>75.34</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1663,19 +1666,19 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C39">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D39">
-        <v>68.09</v>
+        <v>63.64</v>
       </c>
       <c r="E39">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F39">
-        <v>31.91</v>
+        <v>36.36</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1684,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1692,25 +1695,25 @@
         <v>47</v>
       </c>
       <c r="B40">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E40">
         <v>167</v>
       </c>
       <c r="F40">
-        <v>81.86</v>
+        <v>82.27</v>
       </c>
       <c r="G40">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>17.16</v>
+        <v>16.75</v>
       </c>
       <c r="I40">
         <v>7.1</v>
@@ -1750,19 +1753,19 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>34.25</v>
+        <v>35.14</v>
       </c>
       <c r="E42">
         <v>48</v>
       </c>
       <c r="F42">
-        <v>65.75</v>
+        <v>64.86</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1837,25 +1840,28 @@
         <v>52</v>
       </c>
       <c r="B45">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C45">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>2.78</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>47.22</v>
+      </c>
+      <c r="I45">
+        <v>6.7</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1892,25 +1898,25 @@
         <v>54</v>
       </c>
       <c r="B47">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="E47">
         <v>108</v>
       </c>
       <c r="F47">
-        <v>69.23</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="G47">
         <v>48</v>
       </c>
       <c r="H47">
-        <v>30.77</v>
+        <v>30.38</v>
       </c>
       <c r="I47">
         <v>7.1</v>
@@ -1921,25 +1927,25 @@
         <v>55</v>
       </c>
       <c r="B48">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C48">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D48">
-        <v>30.56</v>
+        <v>31.76</v>
       </c>
       <c r="E48">
         <v>100</v>
       </c>
       <c r="F48">
-        <v>69.44</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="I48">
         <v>6.8</v>
@@ -2008,25 +2014,25 @@
         <v>58</v>
       </c>
       <c r="B51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>0.93</v>
+        <v>1.85</v>
       </c>
       <c r="E51">
         <v>88</v>
       </c>
       <c r="F51">
-        <v>82.23999999999999</v>
+        <v>81.48</v>
       </c>
       <c r="G51">
         <v>18</v>
       </c>
       <c r="H51">
-        <v>16.82</v>
+        <v>16.67</v>
       </c>
       <c r="I51">
         <v>7.6</v>
@@ -2082,10 +2088,10 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -2097,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>77.95</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2123,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H3">
-        <v>72.09</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2134,10 +2140,10 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C4">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -2149,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4">
-        <v>62.81</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2160,10 +2166,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C5">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -2178,7 +2184,7 @@
         <v>103</v>
       </c>
       <c r="H5">
-        <v>70.06999999999999</v>
+        <v>68.20999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2186,10 +2192,10 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -2204,7 +2210,7 @@
         <v>73</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>98.65000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2238,10 +2244,10 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -2253,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="H8">
-        <v>51.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2264,10 +2270,10 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -2282,7 +2288,7 @@
         <v>51</v>
       </c>
       <c r="H9">
-        <v>52.58</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2290,10 +2296,10 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C10">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -2308,7 +2314,7 @@
         <v>121</v>
       </c>
       <c r="H10">
-        <v>70.34999999999999</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2331,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11">
-        <v>71.56999999999999</v>
+        <v>72.55</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2342,10 +2348,10 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -2360,7 +2366,7 @@
         <v>31</v>
       </c>
       <c r="H12">
-        <v>62</v>
+        <v>60.78</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2446,10 +2452,10 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16">
         <v>100</v>
@@ -2464,7 +2470,7 @@
         <v>143</v>
       </c>
       <c r="H16">
-        <v>80.34</v>
+        <v>80.79000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2472,10 +2478,10 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C17">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D17">
         <v>100</v>
@@ -2490,7 +2496,7 @@
         <v>128</v>
       </c>
       <c r="H17">
-        <v>73.98999999999999</v>
+        <v>72.31999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2498,10 +2504,10 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18">
         <v>100</v>
@@ -2516,7 +2522,7 @@
         <v>118</v>
       </c>
       <c r="H18">
-        <v>80.27</v>
+        <v>80.81999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2565,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>72.04000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2602,10 +2608,10 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -2617,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H22">
-        <v>77.36</v>
+        <v>79.15000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2643,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H23">
-        <v>71.28</v>
+        <v>73.33</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2654,10 +2660,10 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -2672,7 +2678,7 @@
         <v>70</v>
       </c>
       <c r="H24">
-        <v>86.42</v>
+        <v>85.37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2706,10 +2712,10 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C26">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D26">
         <v>100</v>
@@ -2721,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H26">
-        <v>41.9</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2732,10 +2738,10 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -2747,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -2758,10 +2764,10 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C28">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28">
         <v>100</v>
@@ -2776,7 +2782,7 @@
         <v>101</v>
       </c>
       <c r="H28">
-        <v>74.26000000000001</v>
+        <v>73.72</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2784,10 +2790,10 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -2802,7 +2808,7 @@
         <v>119</v>
       </c>
       <c r="H29">
-        <v>77.27</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2851,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H31">
-        <v>70.37</v>
+        <v>73.15000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2877,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H32">
-        <v>58.7</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2914,10 +2920,10 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C34">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -2929,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="H34">
-        <v>81.45</v>
+        <v>88.29000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2955,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="H35">
-        <v>11.73</v>
+        <v>74.69</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2966,10 +2972,10 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C36">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D36">
         <v>100</v>
@@ -2981,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H36">
-        <v>72.54000000000001</v>
+        <v>73.61</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3018,10 +3024,10 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38">
         <v>100</v>
@@ -3036,7 +3042,7 @@
         <v>55</v>
       </c>
       <c r="H38">
-        <v>76.39</v>
+        <v>75.34</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3044,10 +3050,10 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C39">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D39">
         <v>100</v>
@@ -3059,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H39">
-        <v>31.91</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3070,10 +3076,10 @@
         <v>47</v>
       </c>
       <c r="B40">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C40">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D40">
         <v>100</v>
@@ -3085,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H40">
-        <v>99.02</v>
+        <v>99.01000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3122,10 +3128,10 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D42">
         <v>100</v>
@@ -3140,7 +3146,7 @@
         <v>48</v>
       </c>
       <c r="H42">
-        <v>65.75</v>
+        <v>64.86</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3200,25 +3206,25 @@
         <v>52</v>
       </c>
       <c r="B45">
+        <v>72</v>
+      </c>
+      <c r="C45">
+        <v>72</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>70</v>
       </c>
-      <c r="C45">
-        <v>70</v>
-      </c>
-      <c r="D45">
-        <v>100</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
-        <v>0</v>
+        <v>97.22</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3252,10 +3258,10 @@
         <v>54</v>
       </c>
       <c r="B47">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C47">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D47">
         <v>100</v>
@@ -3270,7 +3276,7 @@
         <v>156</v>
       </c>
       <c r="H47">
-        <v>100</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3278,10 +3284,10 @@
         <v>55</v>
       </c>
       <c r="B48">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C48">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D48">
         <v>100</v>
@@ -3293,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H48">
-        <v>69.44</v>
+        <v>68.23999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3356,10 +3362,10 @@
         <v>58</v>
       </c>
       <c r="B51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D51">
         <v>100</v>
@@ -3374,7 +3380,7 @@
         <v>106</v>
       </c>
       <c r="H51">
-        <v>99.06999999999999</v>
+        <v>98.15000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3427,19 +3433,19 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>22.05</v>
+        <v>23.08</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>77.95</v>
+        <v>76.92</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3459,16 +3465,16 @@
         <v>172</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>27.91</v>
+        <v>27.33</v>
       </c>
       <c r="E3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F3">
-        <v>72.09</v>
+        <v>72.67</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3485,19 +3491,19 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>37.19</v>
+        <v>37.93</v>
       </c>
       <c r="E4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>62.81</v>
+        <v>62.07</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3514,19 +3520,19 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>29.93</v>
+        <v>31.79</v>
       </c>
       <c r="E5">
         <v>103</v>
       </c>
       <c r="F5">
-        <v>70.06999999999999</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3543,25 +3549,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E6">
         <v>56</v>
       </c>
       <c r="F6">
-        <v>76.70999999999999</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="G6">
         <v>17</v>
       </c>
       <c r="H6">
-        <v>23.29</v>
+        <v>22.97</v>
       </c>
       <c r="I6">
         <v>7.5</v>
@@ -3601,28 +3607,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C8">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>51.5</v>
+        <v>62.13</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>37.87</v>
       </c>
       <c r="I8">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3630,19 +3636,19 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>47.42</v>
+        <v>48.48</v>
       </c>
       <c r="E9">
         <v>51</v>
       </c>
       <c r="F9">
-        <v>52.58</v>
+        <v>51.52</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3659,19 +3665,19 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>29.65</v>
+        <v>31.25</v>
       </c>
       <c r="E10">
         <v>121</v>
       </c>
       <c r="F10">
-        <v>70.34999999999999</v>
+        <v>68.75</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3691,16 +3697,16 @@
         <v>102</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>28.43</v>
+        <v>27.45</v>
       </c>
       <c r="E11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11">
-        <v>71.56999999999999</v>
+        <v>72.55</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3717,19 +3723,19 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>39.22</v>
       </c>
       <c r="E12">
         <v>31</v>
       </c>
       <c r="F12">
-        <v>62</v>
+        <v>60.78</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3833,19 +3839,19 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>19.66</v>
+        <v>19.21</v>
       </c>
       <c r="E16">
         <v>143</v>
       </c>
       <c r="F16">
-        <v>80.34</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3862,19 +3868,19 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>26.01</v>
+        <v>27.68</v>
       </c>
       <c r="E17">
         <v>128</v>
       </c>
       <c r="F17">
-        <v>73.98999999999999</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3891,19 +3897,19 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>19.73</v>
+        <v>19.18</v>
       </c>
       <c r="E18">
         <v>118</v>
       </c>
       <c r="F18">
-        <v>80.27</v>
+        <v>80.81999999999999</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3952,22 +3958,25 @@
         <v>186</v>
       </c>
       <c r="C20">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>27.96</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4004,19 +4013,19 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>22.64</v>
+        <v>20.85</v>
       </c>
       <c r="E22">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F22">
-        <v>77.36</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -4036,16 +4045,16 @@
         <v>195</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>28.72</v>
+        <v>26.67</v>
       </c>
       <c r="E23">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F23">
-        <v>71.28</v>
+        <v>73.33</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4062,25 +4071,25 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>13.58</v>
+        <v>14.63</v>
       </c>
       <c r="E24">
         <v>66</v>
       </c>
       <c r="F24">
-        <v>81.48</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24">
-        <v>4.94</v>
+        <v>4.88</v>
       </c>
       <c r="I24">
         <v>8.6</v>
@@ -4120,19 +4129,19 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D26">
-        <v>58.1</v>
+        <v>48.15</v>
       </c>
       <c r="E26">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F26">
-        <v>41.9</v>
+        <v>51.85</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -4149,7 +4158,7 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4158,16 +4167,16 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27">
-        <v>84.29000000000001</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="G27">
         <v>11</v>
       </c>
       <c r="H27">
-        <v>15.71</v>
+        <v>15.49</v>
       </c>
       <c r="I27">
         <v>7.8</v>
@@ -4178,19 +4187,19 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>25.74</v>
+        <v>26.28</v>
       </c>
       <c r="E28">
         <v>101</v>
       </c>
       <c r="F28">
-        <v>74.26000000000001</v>
+        <v>73.72</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4207,19 +4216,19 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>22.73</v>
+        <v>22.22</v>
       </c>
       <c r="E29">
         <v>119</v>
       </c>
       <c r="F29">
-        <v>77.27</v>
+        <v>77.78</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4268,16 +4277,16 @@
         <v>108</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>29.63</v>
+        <v>26.85</v>
       </c>
       <c r="E31">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F31">
-        <v>70.37</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4297,16 +4306,16 @@
         <v>247</v>
       </c>
       <c r="C32">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D32">
-        <v>41.3</v>
+        <v>36.84</v>
       </c>
       <c r="E32">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F32">
-        <v>58.7</v>
+        <v>63.16</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4352,28 +4361,28 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C34">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>18.55</v>
+        <v>11.71</v>
       </c>
       <c r="E34">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F34">
-        <v>81</v>
+        <v>85.14</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>0.45</v>
+        <v>3.15</v>
       </c>
       <c r="I34">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4384,25 +4393,25 @@
         <v>162</v>
       </c>
       <c r="C35">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>88.27</v>
+        <v>25.31</v>
       </c>
       <c r="E35">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F35">
-        <v>11.73</v>
+        <v>46.3</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="I35">
-        <v>9.300000000000001</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4410,25 +4419,25 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C36">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>27.46</v>
+        <v>26.39</v>
       </c>
       <c r="E36">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F36">
-        <v>69.01000000000001</v>
+        <v>70.14</v>
       </c>
       <c r="G36">
         <v>5</v>
       </c>
       <c r="H36">
-        <v>3.52</v>
+        <v>3.47</v>
       </c>
       <c r="I36">
         <v>7.6</v>
@@ -4468,19 +4477,19 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>23.61</v>
+        <v>24.66</v>
       </c>
       <c r="E38">
         <v>55</v>
       </c>
       <c r="F38">
-        <v>76.39</v>
+        <v>75.34</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4497,19 +4506,19 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C39">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D39">
-        <v>68.09</v>
+        <v>63.64</v>
       </c>
       <c r="E39">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F39">
-        <v>31.91</v>
+        <v>36.36</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4518,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4526,25 +4535,25 @@
         <v>47</v>
       </c>
       <c r="B40">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E40">
         <v>167</v>
       </c>
       <c r="F40">
-        <v>81.86</v>
+        <v>82.27</v>
       </c>
       <c r="G40">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>17.16</v>
+        <v>16.75</v>
       </c>
       <c r="I40">
         <v>7.1</v>
@@ -4584,19 +4593,19 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>34.25</v>
+        <v>35.14</v>
       </c>
       <c r="E42">
         <v>48</v>
       </c>
       <c r="F42">
-        <v>65.75</v>
+        <v>64.86</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4671,25 +4680,28 @@
         <v>52</v>
       </c>
       <c r="B45">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C45">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>2.78</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>47.22</v>
+      </c>
+      <c r="I45">
+        <v>6.7</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4726,25 +4738,25 @@
         <v>54</v>
       </c>
       <c r="B47">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="E47">
         <v>108</v>
       </c>
       <c r="F47">
-        <v>69.23</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="G47">
         <v>48</v>
       </c>
       <c r="H47">
-        <v>30.77</v>
+        <v>30.38</v>
       </c>
       <c r="I47">
         <v>7.1</v>
@@ -4755,25 +4767,25 @@
         <v>55</v>
       </c>
       <c r="B48">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C48">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D48">
-        <v>30.56</v>
+        <v>31.76</v>
       </c>
       <c r="E48">
         <v>100</v>
       </c>
       <c r="F48">
-        <v>69.44</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="I48">
         <v>6.8</v>
@@ -4842,25 +4854,25 @@
         <v>58</v>
       </c>
       <c r="B51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>0.93</v>
+        <v>1.85</v>
       </c>
       <c r="E51">
         <v>88</v>
       </c>
       <c r="F51">
-        <v>82.23999999999999</v>
+        <v>81.48</v>
       </c>
       <c r="G51">
         <v>18</v>
       </c>
       <c r="H51">
-        <v>16.82</v>
+        <v>16.67</v>
       </c>
       <c r="I51">
         <v>7.7</v>

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -1437,25 +1437,25 @@
         <v>108</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>26.85</v>
+        <v>23.15</v>
       </c>
       <c r="E31">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F31">
-        <v>73.15000000000001</v>
+        <v>75</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="I31">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1466,16 +1466,16 @@
         <v>247</v>
       </c>
       <c r="C32">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D32">
-        <v>36.84</v>
+        <v>33.6</v>
       </c>
       <c r="E32">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F32">
-        <v>63.16</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1524,16 +1524,16 @@
         <v>222</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>11.71</v>
+        <v>11.26</v>
       </c>
       <c r="E34">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F34">
-        <v>85.14</v>
+        <v>85.59</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -1669,16 +1669,16 @@
         <v>143</v>
       </c>
       <c r="C39">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D39">
-        <v>63.64</v>
+        <v>47.55</v>
       </c>
       <c r="E39">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F39">
-        <v>36.36</v>
+        <v>52.45</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H31">
-        <v>73.15000000000001</v>
+        <v>76.84999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H32">
-        <v>63.16</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2935,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H34">
-        <v>88.29000000000001</v>
+        <v>88.73999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3065,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H39">
-        <v>36.36</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4277,25 +4277,25 @@
         <v>108</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>26.85</v>
+        <v>23.15</v>
       </c>
       <c r="E31">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F31">
-        <v>73.15000000000001</v>
+        <v>75</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="I31">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4306,16 +4306,16 @@
         <v>247</v>
       </c>
       <c r="C32">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D32">
-        <v>36.84</v>
+        <v>33.6</v>
       </c>
       <c r="E32">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F32">
-        <v>63.16</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4364,16 +4364,16 @@
         <v>222</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>11.71</v>
+        <v>11.26</v>
       </c>
       <c r="E34">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F34">
-        <v>85.14</v>
+        <v>85.59</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -4509,16 +4509,16 @@
         <v>143</v>
       </c>
       <c r="C39">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D39">
-        <v>63.64</v>
+        <v>47.55</v>
       </c>
       <c r="E39">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F39">
-        <v>36.36</v>
+        <v>52.45</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="40" spans="1:9">

--- a/Totales Docentes.xlsx
+++ b/Totales Docentes.xlsx
@@ -741,25 +741,25 @@
         <v>91</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>46.15</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7">
-        <v>53.85</v>
+        <v>57.14</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="I7">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -999,19 +999,19 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>19.21</v>
+        <v>18.96</v>
       </c>
       <c r="E16">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="F16">
-        <v>80.79000000000001</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>186</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>27.96</v>
+        <v>4.3</v>
       </c>
       <c r="E20">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F20">
-        <v>72.04000000000001</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>15.05</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1466,16 +1466,16 @@
         <v>247</v>
       </c>
       <c r="C32">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D32">
-        <v>33.6</v>
+        <v>31.17</v>
       </c>
       <c r="E32">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F32">
-        <v>66.40000000000001</v>
+        <v>68.83</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1524,10 +1524,10 @@
         <v>222</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>11.26</v>
+        <v>10.36</v>
       </c>
       <c r="E34">
         <v>190</v>
@@ -1536,10 +1536,10 @@
         <v>85.59</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H34">
-        <v>3.15</v>
+        <v>4.05</v>
       </c>
       <c r="I34">
         <v>8.199999999999999</v>
@@ -1753,19 +1753,19 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D42">
-        <v>35.14</v>
+        <v>30</v>
       </c>
       <c r="E42">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F42">
-        <v>64.86</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1956,19 +1956,19 @@
         <v>56</v>
       </c>
       <c r="B49">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C49">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D49">
-        <v>47.58</v>
+        <v>44.44</v>
       </c>
       <c r="E49">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F49">
-        <v>52.42</v>
+        <v>55.56</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2233,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H7">
-        <v>53.85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2452,10 +2452,10 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C16">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D16">
         <v>100</v>
@@ -2467,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="H16">
-        <v>80.79000000000001</v>
+        <v>81.04000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="H20">
-        <v>72.04000000000001</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H32">
-        <v>66.40000000000001</v>
+        <v>68.83</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2935,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H34">
-        <v>88.73999999999999</v>
+        <v>89.64</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3128,10 +3128,10 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D42">
         <v>100</v>
@@ -3143,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H42">
-        <v>64.86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3310,10 +3310,10 @@
         <v>56</v>
       </c>
       <c r="B49">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C49">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D49">
         <v>100</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H49">
-        <v>52.42</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3581,25 +3581,25 @@
         <v>91</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>46.15</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7">
-        <v>53.85</v>
+        <v>57.14</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="I7">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3839,19 +3839,19 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>19.21</v>
+        <v>18.96</v>
       </c>
       <c r="E16">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="F16">
-        <v>80.79000000000001</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3958,25 +3958,25 @@
         <v>186</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>27.96</v>
+        <v>4.3</v>
       </c>
       <c r="E20">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F20">
-        <v>72.04000000000001</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>15.05</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4306,16 +4306,16 @@
         <v>247</v>
       </c>
       <c r="C32">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D32">
-        <v>33.6</v>
+        <v>31.17</v>
       </c>
       <c r="E32">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F32">
-        <v>66.40000000000001</v>
+        <v>68.83</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4364,10 +4364,10 @@
         <v>222</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>11.26</v>
+        <v>10.36</v>
       </c>
       <c r="E34">
         <v>190</v>
@@ -4376,10 +4376,10 @@
         <v>85.59</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H34">
-        <v>3.15</v>
+        <v>4.05</v>
       </c>
       <c r="I34">
         <v>8.199999999999999</v>
@@ -4593,19 +4593,19 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D42">
-        <v>35.14</v>
+        <v>30</v>
       </c>
       <c r="E42">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F42">
-        <v>64.86</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4796,19 +4796,19 @@
         <v>56</v>
       </c>
       <c r="B49">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C49">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D49">
-        <v>47.58</v>
+        <v>44.44</v>
       </c>
       <c r="E49">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F49">
-        <v>52.42</v>
+        <v>55.56</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="50" spans="1:9">
